--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5702DDA-B022-4E25-8F17-E36083F84BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3102C-FFEB-4F8E-9AC7-7C90C6AB1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,6 +347,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,25 +783,37 @@
         <f>A2</f>
         <v>45915</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="E3" s="14">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14">
+        <v>11</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>11</v>
+      </c>
+      <c r="I3" s="14">
+        <v>11</v>
+      </c>
+      <c r="J3" s="14">
+        <v>13</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
@@ -1335,25 +1350,37 @@
         <f>A17</f>
         <v>45922</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="14">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="E18" s="14">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14">
+        <v>14</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14">
+        <v>11</v>
+      </c>
+      <c r="I18" s="14">
+        <v>4</v>
+      </c>
+      <c r="J18" s="14">
+        <v>11</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -1782,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="3">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3">
         <v>6</v>
@@ -1809,25 +1836,37 @@
         <f>A30</f>
         <v>45925</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="14">
         <v>31</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="E31" s="14">
+        <v>10</v>
+      </c>
+      <c r="F31" s="14">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14">
+        <v>7</v>
+      </c>
+      <c r="H31" s="14">
+        <v>11</v>
+      </c>
+      <c r="I31" s="14">
+        <v>7</v>
+      </c>
+      <c r="J31" s="14">
+        <v>11</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
@@ -1944,50 +1983,50 @@
         <f>A34</f>
         <v>45929</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>35</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f>A35</f>
         <v>45929</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>36</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -2018,25 +2057,25 @@
         <f>A37</f>
         <v>45930</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>38</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -2052,14 +2091,30 @@
       <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="E39" s="3">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3">
+        <v>11</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3">
+        <v>12</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
@@ -2077,12 +2132,24 @@
       <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="E40" s="2">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>11</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2">
+        <v>11</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2126,12 +2193,24 @@
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="E42" s="3">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>11</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2142,25 +2221,25 @@
         <f>A42</f>
         <v>45931</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>43</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
@@ -2176,14 +2255,30 @@
       <c r="D44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="E44" s="2">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6</v>
+      </c>
+      <c r="J44" s="2">
+        <v>11</v>
+      </c>
+      <c r="K44" s="2">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2">
+        <v>8</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3102C-FFEB-4F8E-9AC7-7C90C6AB1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ED55CF-DC12-4E8C-9AB4-9642C16C35A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -681,14 +681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2057,25 +2057,37 @@
         <f>A37</f>
         <v>45930</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4</v>
+      </c>
+      <c r="J38" s="3">
+        <v>11</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -2221,25 +2233,37 @@
         <f>A42</f>
         <v>45931</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>43</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14</v>
+      </c>
+      <c r="I43" s="3">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ED55CF-DC12-4E8C-9AB4-9642C16C35A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F79AF16-89C5-47E6-8DCC-A02DBF646B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -2394,12 +2394,24 @@
       <c r="D48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="E48" s="2">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2443,12 +2455,24 @@
       <c r="D50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="E50" s="3">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3">
+        <v>11</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3">
+        <v>12</v>
+      </c>
+      <c r="J50" s="3">
+        <v>10</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2592,12 +2616,24 @@
       <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="E56" s="2">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2">
+        <v>4</v>
+      </c>
+      <c r="I56" s="2">
+        <v>11</v>
+      </c>
+      <c r="J56" s="2">
+        <v>7</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F79AF16-89C5-47E6-8DCC-A02DBF646B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92509752-2D52-441C-B018-25CD1E9EA378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -1151,12 +1151,24 @@
       <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="9">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9">
+        <v>9</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -1592,12 +1604,24 @@
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="E24" s="9">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4</v>
+      </c>
+      <c r="I24" s="9">
+        <v>11</v>
+      </c>
+      <c r="J24" s="9">
+        <v>4</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -2017,12 +2041,24 @@
       <c r="D36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="E36" s="9">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9">
+        <v>7</v>
+      </c>
+      <c r="G36" s="9">
+        <v>11</v>
+      </c>
+      <c r="H36" s="9">
+        <v>3</v>
+      </c>
+      <c r="I36" s="9">
+        <v>11</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2</v>
+      </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -2541,12 +2577,24 @@
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>11</v>
+      </c>
+      <c r="I53" s="1">
+        <v>6</v>
+      </c>
+      <c r="J53" s="1">
+        <v>11</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92509752-2D52-441C-B018-25CD1E9EA378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516BC45-2A59-4633-ACCE-511B2D2AA51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,9 +333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,6 +348,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -358,7 +361,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -681,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N132"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+      <c r="A1" s="10">
         <v>45915</v>
       </c>
       <c r="B1" s="4">
@@ -734,7 +747,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <f>A1</f>
         <v>45915</v>
       </c>
@@ -779,44 +792,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <f>A2</f>
         <v>45915</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>9</v>
       </c>
-      <c r="F3" s="14">
-        <v>11</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="13">
+        <v>11</v>
+      </c>
+      <c r="G3" s="13">
         <v>3</v>
       </c>
-      <c r="H3" s="14">
-        <v>11</v>
-      </c>
-      <c r="I3" s="14">
-        <v>11</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="H3" s="13">
+        <v>11</v>
+      </c>
+      <c r="I3" s="13">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13">
         <v>13</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <f>A3</f>
         <v>45915</v>
       </c>
@@ -861,7 +874,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>45916</v>
       </c>
       <c r="B5" s="4">
@@ -901,7 +914,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <f>A5</f>
         <v>45916</v>
       </c>
@@ -942,7 +955,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <f>A6</f>
         <v>45916</v>
       </c>
@@ -987,7 +1000,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <f>A7</f>
         <v>45916</v>
       </c>
@@ -1024,7 +1037,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>45917</v>
       </c>
       <c r="B9" s="4">
@@ -1064,7 +1077,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <f>A9</f>
         <v>45917</v>
       </c>
@@ -1101,7 +1114,7 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <f>A10</f>
         <v>45917</v>
       </c>
@@ -1138,44 +1151,44 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <f>A11</f>
         <v>45917</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="14">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9">
-        <v>11</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="14">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14">
         <v>8</v>
       </c>
-      <c r="G12" s="9">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="14">
+        <v>11</v>
+      </c>
+      <c r="H12" s="14">
         <v>6</v>
       </c>
-      <c r="I12" s="9">
-        <v>11</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="14">
+        <v>11</v>
+      </c>
+      <c r="J12" s="14">
         <v>9</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>45918</v>
       </c>
       <c r="B13" s="4">
@@ -1211,7 +1224,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <f>A13</f>
         <v>45918</v>
       </c>
@@ -1248,7 +1261,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f>A14</f>
         <v>45918</v>
       </c>
@@ -1273,7 +1286,7 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <f>A15</f>
         <v>45918</v>
       </c>
@@ -1314,7 +1327,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>45922</v>
       </c>
       <c r="B17" s="4">
@@ -1358,44 +1371,44 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <f>A17</f>
         <v>45922</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>18</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>12</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>14</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>5</v>
       </c>
-      <c r="H18" s="14">
-        <v>11</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="13">
+        <v>11</v>
+      </c>
+      <c r="I18" s="13">
         <v>4</v>
       </c>
-      <c r="J18" s="14">
-        <v>11</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="J18" s="13">
+        <v>11</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <f>A18</f>
         <v>45922</v>
       </c>
@@ -1432,7 +1445,7 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <f>A19</f>
         <v>45922</v>
       </c>
@@ -1469,7 +1482,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>45923</v>
       </c>
       <c r="B21" s="4">
@@ -1513,7 +1526,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <f>A21</f>
         <v>45923</v>
       </c>
@@ -1554,7 +1567,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <f>A22</f>
         <v>45923</v>
       </c>
@@ -1591,44 +1604,44 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <f>A23</f>
         <v>45923</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="14">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="9">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="14">
+        <v>11</v>
+      </c>
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>11</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="G24" s="14">
+        <v>11</v>
+      </c>
+      <c r="H24" s="14">
         <v>4</v>
       </c>
-      <c r="I24" s="9">
-        <v>11</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="14">
+        <v>11</v>
+      </c>
+      <c r="J24" s="14">
         <v>4</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>45924</v>
       </c>
       <c r="B25" s="4">
@@ -1664,7 +1677,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <f>A25</f>
         <v>45924</v>
       </c>
@@ -1701,7 +1714,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <f>A26</f>
         <v>45924</v>
       </c>
@@ -1746,7 +1759,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <f>A27</f>
         <v>45924</v>
       </c>
@@ -1783,7 +1796,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>45925</v>
       </c>
       <c r="B29" s="4">
@@ -1819,7 +1832,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <f>A29</f>
         <v>45925</v>
       </c>
@@ -1856,44 +1869,44 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <f>A30</f>
         <v>45925</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>31</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>10</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>12</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>7</v>
       </c>
-      <c r="H31" s="14">
-        <v>11</v>
-      </c>
-      <c r="I31" s="14">
+      <c r="H31" s="13">
+        <v>11</v>
+      </c>
+      <c r="I31" s="13">
         <v>7</v>
       </c>
-      <c r="J31" s="14">
-        <v>11</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="J31" s="13">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <f>A31</f>
         <v>45925</v>
       </c>
@@ -1930,7 +1943,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>45929</v>
       </c>
       <c r="B33" s="4">
@@ -1966,7 +1979,7 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <f>A33</f>
         <v>45929</v>
       </c>
@@ -2003,7 +2016,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <f>A34</f>
         <v>45929</v>
       </c>
@@ -2028,72 +2041,72 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <f>A35</f>
         <v>45929</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="14">
         <v>36</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="9">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="14">
+        <v>11</v>
+      </c>
+      <c r="F36" s="14">
         <v>7</v>
       </c>
-      <c r="G36" s="9">
-        <v>11</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="G36" s="14">
+        <v>11</v>
+      </c>
+      <c r="H36" s="14">
         <v>3</v>
       </c>
-      <c r="I36" s="9">
-        <v>11</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="I36" s="14">
+        <v>11</v>
+      </c>
+      <c r="J36" s="14">
         <v>2</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>45930</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>37</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <f>A37</f>
         <v>45930</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="5">
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2126,7 +2139,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <f>A38</f>
         <v>45930</v>
       </c>
@@ -2167,7 +2180,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <f>A39</f>
         <v>45930</v>
       </c>
@@ -2204,31 +2217,31 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>45931</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>41</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <f>A41</f>
         <v>45931</v>
       </c>
@@ -2265,11 +2278,11 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <f>A42</f>
         <v>45931</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="8">
         <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2302,7 +2315,7 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <f>A43</f>
         <v>45931</v>
       </c>
@@ -2343,81 +2356,101 @@
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>45932</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="15">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="E45" s="15">
+        <v>8</v>
+      </c>
+      <c r="F45" s="15">
+        <v>11</v>
+      </c>
+      <c r="G45" s="15">
+        <v>9</v>
+      </c>
+      <c r="H45" s="15">
+        <v>11</v>
+      </c>
+      <c r="I45" s="15">
+        <v>15</v>
+      </c>
+      <c r="J45" s="15">
+        <v>13</v>
+      </c>
+      <c r="K45" s="15">
+        <v>11</v>
+      </c>
+      <c r="L45" s="15">
+        <v>8</v>
+      </c>
+      <c r="M45" s="15">
+        <v>12</v>
+      </c>
+      <c r="N45" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <f>A45</f>
         <v>45932</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>46</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <f>A46</f>
         <v>45932</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="6">
         <v>47</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <f>A47</f>
         <v>45932</v>
       </c>
@@ -2454,7 +2487,7 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>45936</v>
       </c>
       <c r="B49" s="4">
@@ -2478,7 +2511,7 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <f>A49</f>
         <v>45936</v>
       </c>
@@ -2515,7 +2548,7 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <f>A50</f>
         <v>45936</v>
       </c>
@@ -2540,7 +2573,7 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <f>A51</f>
         <v>45936</v>
       </c>
@@ -2565,7 +2598,7 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>45937</v>
       </c>
       <c r="B53" s="4">
@@ -2601,7 +2634,7 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="A54" s="11">
         <f>A53</f>
         <v>45937</v>
       </c>
@@ -2626,7 +2659,7 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <f>A54</f>
         <v>45937</v>
       </c>
@@ -2651,7 +2684,7 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <f>A55</f>
         <v>45937</v>
       </c>
@@ -2688,7 +2721,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>45938</v>
       </c>
       <c r="B57" s="4">
@@ -2712,7 +2745,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <f>A57</f>
         <v>45938</v>
       </c>
@@ -2737,7 +2770,7 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <f>A58</f>
         <v>45938</v>
       </c>
@@ -2762,7 +2795,7 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <f>A59</f>
         <v>45938</v>
       </c>
@@ -2787,7 +2820,7 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>45943</v>
       </c>
       <c r="B61" s="4">
@@ -2811,7 +2844,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+      <c r="A62" s="11">
         <f>A61</f>
         <v>45943</v>
       </c>
@@ -2836,7 +2869,7 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+      <c r="A63" s="11">
         <f>A62</f>
         <v>45943</v>
       </c>
@@ -2861,7 +2894,7 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <f>A63</f>
         <v>45943</v>
       </c>
@@ -2886,7 +2919,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>45944</v>
       </c>
       <c r="B65" s="4">
@@ -2910,7 +2943,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <f>A65</f>
         <v>45944</v>
       </c>
@@ -2935,7 +2968,7 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <f>A66</f>
         <v>45944</v>
       </c>
@@ -2960,7 +2993,7 @@
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <f>A67</f>
         <v>45944</v>
       </c>
@@ -2985,7 +3018,7 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>45945</v>
       </c>
       <c r="B69" s="4">
@@ -3009,7 +3042,7 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
+      <c r="A70" s="11">
         <f>A69</f>
         <v>45945</v>
       </c>
@@ -3034,7 +3067,7 @@
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+      <c r="A71" s="11">
         <f>A70</f>
         <v>45945</v>
       </c>
@@ -3059,7 +3092,7 @@
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <f>A71</f>
         <v>45945</v>
       </c>
@@ -3084,7 +3117,7 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>45946</v>
       </c>
       <c r="B73" s="4">
@@ -3108,7 +3141,7 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
+      <c r="A74" s="11">
         <f>A73</f>
         <v>45946</v>
       </c>
@@ -3133,7 +3166,7 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <f>A74</f>
         <v>45946</v>
       </c>
@@ -3158,7 +3191,7 @@
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <f>A75</f>
         <v>45946</v>
       </c>
@@ -3183,7 +3216,7 @@
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>45950</v>
       </c>
       <c r="B77" s="4">
@@ -3207,7 +3240,7 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+      <c r="A78" s="11">
         <f>A77</f>
         <v>45950</v>
       </c>
@@ -3232,7 +3265,7 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <f>A78</f>
         <v>45950</v>
       </c>
@@ -3257,7 +3290,7 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <f>A79</f>
         <v>45950</v>
       </c>
@@ -3282,7 +3315,7 @@
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>45951</v>
       </c>
       <c r="B81" s="4">
@@ -3306,7 +3339,7 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <f>A81</f>
         <v>45951</v>
       </c>
@@ -3331,7 +3364,7 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <f>A82</f>
         <v>45951</v>
       </c>
@@ -3356,7 +3389,7 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <f>A83</f>
         <v>45951</v>
       </c>
@@ -3381,7 +3414,7 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>45952</v>
       </c>
       <c r="B85" s="4">
@@ -3405,7 +3438,7 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <f>A85</f>
         <v>45952</v>
       </c>
@@ -3430,7 +3463,7 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <f>A86</f>
         <v>45952</v>
       </c>
@@ -3455,7 +3488,7 @@
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <f>A87</f>
         <v>45952</v>
       </c>
@@ -3480,7 +3513,7 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>45953</v>
       </c>
       <c r="B89" s="4">
@@ -3504,7 +3537,7 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <f>A89</f>
         <v>45953</v>
       </c>
@@ -3529,7 +3562,7 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <f>A90</f>
         <v>45953</v>
       </c>
@@ -3554,7 +3587,7 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <f>A91</f>
         <v>45953</v>
       </c>
@@ -3579,7 +3612,7 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>45957</v>
       </c>
       <c r="B93" s="4">
@@ -3603,7 +3636,7 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <f>A93</f>
         <v>45957</v>
       </c>
@@ -3628,7 +3661,7 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+      <c r="A95" s="11">
         <f>A94</f>
         <v>45957</v>
       </c>
@@ -3653,7 +3686,7 @@
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <f>A95</f>
         <v>45957</v>
       </c>
@@ -3678,7 +3711,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>45958</v>
       </c>
       <c r="B97" s="4">
@@ -3702,7 +3735,7 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
+      <c r="A98" s="11">
         <f>A97</f>
         <v>45958</v>
       </c>
@@ -3727,7 +3760,7 @@
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="12">
+      <c r="A99" s="11">
         <f>A98</f>
         <v>45958</v>
       </c>
@@ -3752,7 +3785,7 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <f>A99</f>
         <v>45958</v>
       </c>
@@ -3777,7 +3810,7 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
+      <c r="A101" s="10">
         <v>45959</v>
       </c>
       <c r="B101" s="4">
@@ -3801,7 +3834,7 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="12">
+      <c r="A102" s="11">
         <f>A101</f>
         <v>45959</v>
       </c>
@@ -3826,7 +3859,7 @@
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="12">
+      <c r="A103" s="11">
         <f>A102</f>
         <v>45959</v>
       </c>
@@ -3851,7 +3884,7 @@
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="13">
+      <c r="A104" s="12">
         <f>A103</f>
         <v>45959</v>
       </c>
@@ -3876,7 +3909,7 @@
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
+      <c r="A105" s="10">
         <v>45960</v>
       </c>
       <c r="B105" s="4">
@@ -3900,7 +3933,7 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="12">
+      <c r="A106" s="11">
         <f>A105</f>
         <v>45960</v>
       </c>
@@ -3925,7 +3958,7 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="12">
+      <c r="A107" s="11">
         <f>A106</f>
         <v>45960</v>
       </c>
@@ -3950,7 +3983,7 @@
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="13">
+      <c r="A108" s="12">
         <f>A107</f>
         <v>45960</v>
       </c>
@@ -3975,7 +4008,7 @@
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="A109" s="10">
         <v>45964</v>
       </c>
       <c r="B109" s="4">
@@ -3999,7 +4032,7 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="12">
+      <c r="A110" s="11">
         <f>A109</f>
         <v>45964</v>
       </c>
@@ -4024,7 +4057,7 @@
       <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <f>A110</f>
         <v>45964</v>
       </c>
@@ -4049,7 +4082,7 @@
       <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="13">
+      <c r="A112" s="12">
         <f>A111</f>
         <v>45964</v>
       </c>
@@ -4074,7 +4107,7 @@
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113" s="10">
         <v>45965</v>
       </c>
       <c r="B113" s="4">
@@ -4098,7 +4131,7 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <f>A113</f>
         <v>45965</v>
       </c>
@@ -4123,7 +4156,7 @@
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="12">
+      <c r="A115" s="11">
         <f>A114</f>
         <v>45965</v>
       </c>
@@ -4148,7 +4181,7 @@
       <c r="N115" s="3"/>
     </row>
     <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="13">
+      <c r="A116" s="12">
         <f>A115</f>
         <v>45965</v>
       </c>
@@ -4173,7 +4206,7 @@
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>45966</v>
       </c>
       <c r="B117" s="4">
@@ -4197,7 +4230,7 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="12">
+      <c r="A118" s="11">
         <f>A117</f>
         <v>45966</v>
       </c>
@@ -4222,7 +4255,7 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="12">
+      <c r="A119" s="11">
         <f>A118</f>
         <v>45966</v>
       </c>
@@ -4247,7 +4280,7 @@
       <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="13">
+      <c r="A120" s="12">
         <f>A119</f>
         <v>45966</v>
       </c>
@@ -4272,7 +4305,7 @@
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="A121" s="10">
         <v>45967</v>
       </c>
       <c r="B121" s="4">
@@ -4296,7 +4329,7 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="12">
+      <c r="A122" s="11">
         <f>A121</f>
         <v>45967</v>
       </c>
@@ -4321,7 +4354,7 @@
       <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="12">
+      <c r="A123" s="11">
         <f>A122</f>
         <v>45967</v>
       </c>
@@ -4346,7 +4379,7 @@
       <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="13">
+      <c r="A124" s="12">
         <f>A123</f>
         <v>45967</v>
       </c>
@@ -4371,7 +4404,7 @@
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
+      <c r="A125" s="10">
         <v>45971</v>
       </c>
       <c r="B125" s="4">
@@ -4395,7 +4428,7 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="12">
+      <c r="A126" s="11">
         <f>A125</f>
         <v>45971</v>
       </c>
@@ -4420,7 +4453,7 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="12">
+      <c r="A127" s="11">
         <f>A126</f>
         <v>45971</v>
       </c>
@@ -4445,7 +4478,7 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="13">
+      <c r="A128" s="12">
         <f>A127</f>
         <v>45971</v>
       </c>
@@ -4470,7 +4503,7 @@
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="A129" s="10">
         <v>45972</v>
       </c>
       <c r="B129" s="4">
@@ -4494,7 +4527,7 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="12">
+      <c r="A130" s="11">
         <f>A129</f>
         <v>45972</v>
       </c>
@@ -4519,7 +4552,7 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="12">
+      <c r="A131" s="11">
         <f>A130</f>
         <v>45972</v>
       </c>
@@ -4544,7 +4577,7 @@
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="13">
+      <c r="A132" s="12">
         <f>A131</f>
         <v>45972</v>
       </c>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516BC45-2A59-4633-ACCE-511B2D2AA51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A5B89-D508-4DF3-A692-5E84A70B2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -361,17 +361,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A5B89-D508-4DF3-A692-5E84A70B2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B181D309-C801-438A-B39D-DB9196589C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +352,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,16 +687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2480,25 +2483,25 @@
       <c r="A49" s="10">
         <v>45936</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="9">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
@@ -2542,50 +2545,50 @@
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>51</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <f>A51</f>
         <v>45936</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="16">
         <v>52</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -2628,50 +2631,50 @@
         <f>A53</f>
         <v>45937</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>54</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <f>A54</f>
         <v>45937</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="6">
         <v>55</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
@@ -2723,66 +2726,86 @@
       <c r="D57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="E57" s="1">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1">
+        <v>11</v>
+      </c>
+      <c r="K57" s="1">
+        <v>11</v>
+      </c>
+      <c r="L57" s="1">
+        <v>5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>11</v>
+      </c>
+      <c r="N57" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <f>A57</f>
         <v>45938</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>58</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <f>A58</f>
         <v>45938</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="6">
         <v>59</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
@@ -2798,12 +2821,24 @@
       <c r="D60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="E60" s="2">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2">
+        <v>12</v>
+      </c>
+      <c r="J60" s="2">
+        <v>10</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B181D309-C801-438A-B39D-DB9196589C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF906912-5B37-4BE9-B67F-02C40E9DEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,25 +2545,37 @@
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="13">
         <v>51</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="E51" s="13">
+        <v>11</v>
+      </c>
+      <c r="F51" s="13">
+        <v>3</v>
+      </c>
+      <c r="G51" s="13">
+        <v>11</v>
+      </c>
+      <c r="H51" s="13">
+        <v>7</v>
+      </c>
+      <c r="I51" s="13">
+        <v>11</v>
+      </c>
+      <c r="J51" s="13">
+        <v>7</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
@@ -2631,25 +2643,41 @@
         <f>A53</f>
         <v>45937</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="13">
         <v>54</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="E54" s="13">
+        <v>11</v>
+      </c>
+      <c r="F54" s="13">
+        <v>6</v>
+      </c>
+      <c r="G54" s="13">
+        <v>11</v>
+      </c>
+      <c r="H54" s="13">
+        <v>5</v>
+      </c>
+      <c r="I54" s="13">
+        <v>11</v>
+      </c>
+      <c r="J54" s="13">
+        <v>13</v>
+      </c>
+      <c r="K54" s="13">
+        <v>11</v>
+      </c>
+      <c r="L54" s="13">
+        <v>5</v>
+      </c>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
@@ -2762,25 +2790,41 @@
         <f>A57</f>
         <v>45938</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="13">
         <v>58</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="E58" s="13">
+        <v>11</v>
+      </c>
+      <c r="F58" s="13">
+        <v>9</v>
+      </c>
+      <c r="G58" s="13">
+        <v>10</v>
+      </c>
+      <c r="H58" s="13">
+        <v>12</v>
+      </c>
+      <c r="I58" s="13">
+        <v>12</v>
+      </c>
+      <c r="J58" s="13">
+        <v>10</v>
+      </c>
+      <c r="K58" s="13">
+        <v>11</v>
+      </c>
+      <c r="L58" s="13">
+        <v>6</v>
+      </c>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
@@ -2882,12 +2926,24 @@
       <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="E62" s="3">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9</v>
+      </c>
+      <c r="H62" s="3">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2907,10 +2963,18 @@
       <c r="D63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="E63" s="3">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>11</v>
+      </c>
+      <c r="H63" s="3">
+        <v>6</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2932,14 +2996,30 @@
       <c r="D64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>11</v>
+      </c>
+      <c r="K64" s="2">
+        <v>5</v>
+      </c>
+      <c r="L64" s="2">
+        <v>11</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
@@ -3154,14 +3234,30 @@
       <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="E73" s="1">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1">
+        <v>7</v>
+      </c>
+      <c r="J73" s="1">
+        <v>11</v>
+      </c>
+      <c r="K73" s="1">
+        <v>8</v>
+      </c>
+      <c r="L73" s="1">
+        <v>11</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF906912-5B37-4BE9-B67F-02C40E9DEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152ECD2B-688C-49DE-A71A-53AB00B0CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,6 +357,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -364,7 +367,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -687,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,25 +1271,37 @@
         <f>A14</f>
         <v>45918</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="13">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="E15" s="13">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
+        <v>13</v>
+      </c>
+      <c r="G15" s="13">
+        <v>9</v>
+      </c>
+      <c r="H15" s="13">
+        <v>11</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13">
+        <v>11</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
@@ -2013,13 +2038,13 @@
         <f>A34</f>
         <v>45929</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="13">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="6"/>
@@ -2074,13 +2099,13 @@
       <c r="A37" s="10">
         <v>45930</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="15">
         <v>37</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="9"/>
@@ -2213,13 +2238,13 @@
       <c r="A41" s="10">
         <v>45931</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="15">
         <v>41</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="9"/>
@@ -2397,13 +2422,13 @@
         <f>A45</f>
         <v>45932</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="13">
         <v>46</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="6"/>
@@ -2422,13 +2447,13 @@
         <f>A46</f>
         <v>45932</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="13">
         <v>47</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="6"/>
@@ -2483,13 +2508,13 @@
       <c r="A49" s="10">
         <v>45936</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="1">
         <v>49</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="9"/>
@@ -2545,13 +2570,13 @@
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="17">
         <v>51</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="13">
@@ -2582,13 +2607,13 @@
         <f>A51</f>
         <v>45936</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="2">
         <v>52</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="16"/>
@@ -2646,10 +2671,10 @@
       <c r="B54" s="13">
         <v>54</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="13">
@@ -2684,25 +2709,37 @@
         <f>A54</f>
         <v>45937</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="17">
         <v>55</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="E55" s="13">
+        <v>5</v>
+      </c>
+      <c r="F55" s="13">
+        <v>11</v>
+      </c>
+      <c r="G55" s="13">
+        <v>6</v>
+      </c>
+      <c r="H55" s="13">
+        <v>11</v>
+      </c>
+      <c r="I55" s="13">
+        <v>10</v>
+      </c>
+      <c r="J55" s="13">
+        <v>12</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
@@ -2793,10 +2830,10 @@
       <c r="B58" s="13">
         <v>58</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="13">
@@ -2831,13 +2868,13 @@
         <f>A58</f>
         <v>45938</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="13">
         <v>59</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="6"/>
@@ -2901,16 +2938,16 @@
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
@@ -2975,10 +3012,18 @@
       <c r="H63" s="3">
         <v>6</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="I63" s="13">
+        <v>1</v>
+      </c>
+      <c r="J63" s="13">
+        <v>11</v>
+      </c>
+      <c r="K63" s="3">
+        <v>11</v>
+      </c>
+      <c r="L63" s="3">
+        <v>9</v>
+      </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152ECD2B-688C-49DE-A71A-53AB00B0CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3622B59-3363-446C-8ECA-F723FB2A4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,16 +2105,32 @@
       <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="E37" s="15">
+        <v>10</v>
+      </c>
+      <c r="F37" s="15">
+        <v>12</v>
+      </c>
+      <c r="G37" s="15">
+        <v>6</v>
+      </c>
+      <c r="H37" s="15">
+        <v>11</v>
+      </c>
+      <c r="I37" s="15">
+        <v>16</v>
+      </c>
+      <c r="J37" s="15">
+        <v>14</v>
+      </c>
+      <c r="K37" s="15">
+        <v>3</v>
+      </c>
+      <c r="L37" s="15">
+        <v>11</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
@@ -2456,16 +2469,32 @@
       <c r="D47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="E47" s="13">
+        <v>7</v>
+      </c>
+      <c r="F47" s="13">
+        <v>11</v>
+      </c>
+      <c r="G47" s="13">
+        <v>11</v>
+      </c>
+      <c r="H47" s="13">
+        <v>6</v>
+      </c>
+      <c r="I47" s="13">
+        <v>8</v>
+      </c>
+      <c r="J47" s="13">
+        <v>11</v>
+      </c>
+      <c r="K47" s="13">
+        <v>4</v>
+      </c>
+      <c r="L47" s="13">
+        <v>11</v>
+      </c>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
@@ -2570,7 +2599,7 @@
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2616,16 +2645,28 @@
       <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
+      <c r="E52" s="14">
+        <v>2</v>
+      </c>
+      <c r="F52" s="14">
+        <v>11</v>
+      </c>
+      <c r="G52" s="14">
+        <v>4</v>
+      </c>
+      <c r="H52" s="14">
+        <v>11</v>
+      </c>
+      <c r="I52" s="14">
+        <v>4</v>
+      </c>
+      <c r="J52" s="14">
+        <v>11</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -2709,7 +2750,7 @@
         <f>A54</f>
         <v>45937</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2877,16 +2918,32 @@
       <c r="D59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="E59" s="13">
+        <v>11</v>
+      </c>
+      <c r="F59" s="13">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13">
+        <v>7</v>
+      </c>
+      <c r="H59" s="13">
+        <v>11</v>
+      </c>
+      <c r="I59" s="13">
+        <v>2</v>
+      </c>
+      <c r="J59" s="13">
+        <v>11</v>
+      </c>
+      <c r="K59" s="13">
+        <v>5</v>
+      </c>
+      <c r="L59" s="13">
+        <v>11</v>
+      </c>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
@@ -3081,16 +3138,16 @@
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
@@ -3106,16 +3163,16 @@
       <c r="D66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
@@ -3131,16 +3188,16 @@
       <c r="D67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
@@ -3156,12 +3213,24 @@
       <c r="D68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="E68" s="2">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2">
+        <v>6</v>
+      </c>
+      <c r="G68" s="2">
+        <v>11</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>11</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3622B59-3363-446C-8ECA-F723FB2A4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B6156-B333-4F27-8431-362A66F66466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -697,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,16 +3148,36 @@
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
+      <c r="E65" s="15">
+        <v>11</v>
+      </c>
+      <c r="F65" s="15">
+        <v>4</v>
+      </c>
+      <c r="G65" s="15">
+        <v>6</v>
+      </c>
+      <c r="H65" s="15">
+        <v>11</v>
+      </c>
+      <c r="I65" s="15">
+        <v>8</v>
+      </c>
+      <c r="J65" s="15">
+        <v>11</v>
+      </c>
+      <c r="K65" s="15">
+        <v>11</v>
+      </c>
+      <c r="L65" s="15">
+        <v>4</v>
+      </c>
+      <c r="M65" s="15">
+        <v>9</v>
+      </c>
+      <c r="N65" s="15">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
@@ -3163,16 +3193,32 @@
       <c r="D66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
+      <c r="E66" s="13">
+        <v>11</v>
+      </c>
+      <c r="F66" s="13">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13">
+        <v>6</v>
+      </c>
+      <c r="H66" s="13">
+        <v>11</v>
+      </c>
+      <c r="I66" s="13">
+        <v>4</v>
+      </c>
+      <c r="J66" s="13">
+        <v>11</v>
+      </c>
+      <c r="K66" s="13">
+        <v>7</v>
+      </c>
+      <c r="L66" s="13">
+        <v>11</v>
+      </c>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="11">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B6156-B333-4F27-8431-362A66F66466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BF542-2E66-4911-AC77-DAB618C7BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -364,17 +364,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -707,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -2454,16 +2444,28 @@
       <c r="D46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="E46" s="13">
+        <v>13</v>
+      </c>
+      <c r="F46" s="13">
+        <v>15</v>
+      </c>
+      <c r="G46" s="13">
+        <v>7</v>
+      </c>
+      <c r="H46" s="13">
+        <v>11</v>
+      </c>
+      <c r="I46" s="13">
+        <v>5</v>
+      </c>
+      <c r="J46" s="13">
+        <v>11</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
@@ -3005,16 +3007,32 @@
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
+      <c r="E61" s="15">
+        <v>11</v>
+      </c>
+      <c r="F61" s="15">
+        <v>9</v>
+      </c>
+      <c r="G61" s="15">
+        <v>11</v>
+      </c>
+      <c r="H61" s="15">
+        <v>7</v>
+      </c>
+      <c r="I61" s="15">
+        <v>8</v>
+      </c>
+      <c r="J61" s="15">
+        <v>11</v>
+      </c>
+      <c r="K61" s="15">
+        <v>11</v>
+      </c>
+      <c r="L61" s="15">
+        <v>7</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
@@ -3295,14 +3313,30 @@
       <c r="D69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1">
+        <v>10</v>
+      </c>
+      <c r="H69" s="1">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1">
+        <v>11</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1">
+        <v>8</v>
+      </c>
+      <c r="L69" s="1">
+        <v>11</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
@@ -3320,16 +3354,16 @@
       <c r="D70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
@@ -3345,16 +3379,36 @@
       <c r="D71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="E71" s="3">
+        <v>11</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
+      <c r="G71" s="3">
+        <v>9</v>
+      </c>
+      <c r="H71" s="3">
+        <v>11</v>
+      </c>
+      <c r="I71" s="3">
+        <v>7</v>
+      </c>
+      <c r="J71" s="3">
+        <v>11</v>
+      </c>
+      <c r="K71" s="3">
+        <v>11</v>
+      </c>
+      <c r="L71" s="3">
+        <v>5</v>
+      </c>
+      <c r="M71" s="3">
+        <v>11</v>
+      </c>
+      <c r="N71" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
@@ -3370,12 +3424,24 @@
       <c r="D72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="E72" s="2">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2">
+        <v>7</v>
+      </c>
+      <c r="G72" s="2">
+        <v>11</v>
+      </c>
+      <c r="H72" s="2">
+        <v>3</v>
+      </c>
+      <c r="I72" s="2">
+        <v>11</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -3435,14 +3501,30 @@
       <c r="D74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="E74" s="3">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3">
+        <v>9</v>
+      </c>
+      <c r="G74" s="3">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3">
+        <v>11</v>
+      </c>
+      <c r="J74" s="3">
+        <v>6</v>
+      </c>
+      <c r="K74" s="3">
+        <v>11</v>
+      </c>
+      <c r="L74" s="3">
+        <v>5</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BF542-2E66-4911-AC77-DAB618C7BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E4694-E3D8-486D-844A-F4B6C83E9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +355,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -2260,16 +2263,36 @@
       <c r="D41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="E41" s="15">
+        <v>11</v>
+      </c>
+      <c r="F41" s="15">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15">
+        <v>8</v>
+      </c>
+      <c r="H41" s="15">
+        <v>11</v>
+      </c>
+      <c r="I41" s="15">
+        <v>7</v>
+      </c>
+      <c r="J41" s="15">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15">
+        <v>11</v>
+      </c>
+      <c r="L41" s="15">
+        <v>5</v>
+      </c>
+      <c r="M41" s="15">
+        <v>12</v>
+      </c>
+      <c r="N41" s="15">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
@@ -3542,16 +3565,36 @@
       <c r="D75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="E75" s="3">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3">
+        <v>8</v>
+      </c>
+      <c r="G75" s="3">
+        <v>5</v>
+      </c>
+      <c r="H75" s="3">
+        <v>11</v>
+      </c>
+      <c r="I75" s="3">
+        <v>11</v>
+      </c>
+      <c r="J75" s="3">
+        <v>6</v>
+      </c>
+      <c r="K75" s="3">
+        <v>7</v>
+      </c>
+      <c r="L75" s="3">
+        <v>11</v>
+      </c>
+      <c r="M75" s="3">
+        <v>8</v>
+      </c>
+      <c r="N75" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
@@ -3567,16 +3610,16 @@
       <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="10">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E4694-E3D8-486D-844A-F4B6C83E9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5181DDF-9C6A-4E44-92B6-DD555F54EAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,9 +333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -355,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -713,7 +707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+      <c r="A1" s="9">
         <v>45915</v>
       </c>
       <c r="B1" s="4">
@@ -753,7 +747,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <f>A1</f>
         <v>45915</v>
       </c>
@@ -798,44 +792,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <f>A2</f>
         <v>45915</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13">
-        <v>11</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="H3" s="12">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12">
         <v>13</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <f>A3</f>
         <v>45915</v>
       </c>
@@ -880,7 +874,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45916</v>
       </c>
       <c r="B5" s="4">
@@ -920,7 +914,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f>A5</f>
         <v>45916</v>
       </c>
@@ -961,7 +955,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f>A6</f>
         <v>45916</v>
       </c>
@@ -1006,7 +1000,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <f>A7</f>
         <v>45916</v>
       </c>
@@ -1043,7 +1037,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>45917</v>
       </c>
       <c r="B9" s="4">
@@ -1083,7 +1077,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f>A9</f>
         <v>45917</v>
       </c>
@@ -1120,7 +1114,7 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f>A10</f>
         <v>45917</v>
       </c>
@@ -1157,44 +1151,44 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <f>A11</f>
         <v>45917</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>12</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="14">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="E12" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
         <v>8</v>
       </c>
-      <c r="G12" s="14">
-        <v>11</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="G12" s="13">
+        <v>11</v>
+      </c>
+      <c r="H12" s="13">
         <v>6</v>
       </c>
-      <c r="I12" s="14">
-        <v>11</v>
-      </c>
-      <c r="J12" s="14">
-        <v>9</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="13">
+        <v>11</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>45918</v>
       </c>
       <c r="B13" s="4">
@@ -1230,7 +1224,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <f>A13</f>
         <v>45918</v>
       </c>
@@ -1267,44 +1261,44 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f>A14</f>
         <v>45918</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>15</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13">
-        <v>11</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12">
         <v>13</v>
       </c>
-      <c r="G15" s="13">
-        <v>9</v>
-      </c>
-      <c r="H15" s="13">
-        <v>11</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="G15" s="12">
+        <v>9</v>
+      </c>
+      <c r="H15" s="12">
+        <v>11</v>
+      </c>
+      <c r="I15" s="12">
         <v>6</v>
       </c>
-      <c r="J15" s="13">
-        <v>11</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="J15" s="12">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f>A15</f>
         <v>45918</v>
       </c>
@@ -1345,7 +1339,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>45922</v>
       </c>
       <c r="B17" s="4">
@@ -1389,44 +1383,44 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <f>A17</f>
         <v>45922</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>18</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>12</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>14</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>5</v>
       </c>
-      <c r="H18" s="13">
-        <v>11</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="12">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12">
         <v>4</v>
       </c>
-      <c r="J18" s="13">
-        <v>11</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="J18" s="12">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <f>A18</f>
         <v>45922</v>
       </c>
@@ -1463,7 +1457,7 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <f>A19</f>
         <v>45922</v>
       </c>
@@ -1500,7 +1494,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>45923</v>
       </c>
       <c r="B21" s="4">
@@ -1544,7 +1538,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <f>A21</f>
         <v>45923</v>
       </c>
@@ -1585,7 +1579,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <f>A22</f>
         <v>45923</v>
       </c>
@@ -1622,44 +1616,44 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <f>A23</f>
         <v>45923</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>24</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14">
-        <v>11</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="E24" s="13">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
-      <c r="G24" s="14">
-        <v>11</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="G24" s="13">
+        <v>11</v>
+      </c>
+      <c r="H24" s="13">
         <v>4</v>
       </c>
-      <c r="I24" s="14">
-        <v>11</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="I24" s="13">
+        <v>11</v>
+      </c>
+      <c r="J24" s="13">
         <v>4</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>45924</v>
       </c>
       <c r="B25" s="4">
@@ -1695,7 +1689,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <f>A25</f>
         <v>45924</v>
       </c>
@@ -1732,7 +1726,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <f>A26</f>
         <v>45924</v>
       </c>
@@ -1777,7 +1771,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <f>A27</f>
         <v>45924</v>
       </c>
@@ -1814,7 +1808,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>45925</v>
       </c>
       <c r="B29" s="4">
@@ -1850,7 +1844,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <f>A29</f>
         <v>45925</v>
       </c>
@@ -1887,44 +1881,44 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <f>A30</f>
         <v>45925</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>31</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>10</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>12</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>7</v>
       </c>
-      <c r="H31" s="13">
-        <v>11</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="12">
+        <v>11</v>
+      </c>
+      <c r="I31" s="12">
         <v>7</v>
       </c>
-      <c r="J31" s="13">
-        <v>11</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="J31" s="12">
+        <v>11</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <f>A31</f>
         <v>45925</v>
       </c>
@@ -1961,7 +1955,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>45929</v>
       </c>
       <c r="B33" s="4">
@@ -1997,7 +1991,7 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <f>A33</f>
         <v>45929</v>
       </c>
@@ -2034,17 +2028,17 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <f>A34</f>
         <v>45929</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>35</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="6"/>
@@ -2059,84 +2053,84 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <f>A35</f>
         <v>45929</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>36</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="14">
-        <v>11</v>
-      </c>
-      <c r="F36" s="14">
+      <c r="E36" s="13">
+        <v>11</v>
+      </c>
+      <c r="F36" s="13">
         <v>7</v>
       </c>
-      <c r="G36" s="14">
-        <v>11</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="G36" s="13">
+        <v>11</v>
+      </c>
+      <c r="H36" s="13">
         <v>3</v>
       </c>
-      <c r="I36" s="14">
-        <v>11</v>
-      </c>
-      <c r="J36" s="14">
+      <c r="I36" s="13">
+        <v>11</v>
+      </c>
+      <c r="J36" s="13">
         <v>2</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>45930</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>37</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="15">
+      <c r="D37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="14">
         <v>10</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="14">
         <v>12</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>6</v>
       </c>
-      <c r="H37" s="15">
-        <v>11</v>
-      </c>
-      <c r="I37" s="15">
+      <c r="H37" s="14">
+        <v>11</v>
+      </c>
+      <c r="I37" s="14">
         <v>16</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="14">
         <v>14</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="14">
         <v>3</v>
       </c>
-      <c r="L37" s="15">
-        <v>11</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="L37" s="14">
+        <v>11</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <f>A37</f>
         <v>45930</v>
       </c>
@@ -2173,7 +2167,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <f>A38</f>
         <v>45930</v>
       </c>
@@ -2214,7 +2208,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <f>A39</f>
         <v>45930</v>
       </c>
@@ -2251,51 +2245,51 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>45931</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>41</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="15">
-        <v>11</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="D41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="14">
+        <v>11</v>
+      </c>
+      <c r="F41" s="14">
         <v>8</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>8</v>
       </c>
-      <c r="H41" s="15">
-        <v>11</v>
-      </c>
-      <c r="I41" s="15">
+      <c r="H41" s="14">
+        <v>11</v>
+      </c>
+      <c r="I41" s="14">
         <v>7</v>
       </c>
-      <c r="J41" s="15">
-        <v>11</v>
-      </c>
-      <c r="K41" s="15">
-        <v>11</v>
-      </c>
-      <c r="L41" s="15">
+      <c r="J41" s="14">
+        <v>11</v>
+      </c>
+      <c r="K41" s="14">
+        <v>11</v>
+      </c>
+      <c r="L41" s="14">
         <v>5</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="14">
         <v>12</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <f>A41</f>
         <v>45931</v>
       </c>
@@ -2332,7 +2326,7 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <f>A42</f>
         <v>45931</v>
       </c>
@@ -2369,7 +2363,7 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <f>A43</f>
         <v>45931</v>
       </c>
@@ -2410,129 +2404,129 @@
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>45932</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>45</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>8</v>
       </c>
-      <c r="F45" s="15">
-        <v>11</v>
-      </c>
-      <c r="G45" s="15">
-        <v>9</v>
-      </c>
-      <c r="H45" s="15">
-        <v>11</v>
-      </c>
-      <c r="I45" s="15">
+      <c r="F45" s="14">
+        <v>11</v>
+      </c>
+      <c r="G45" s="14">
+        <v>9</v>
+      </c>
+      <c r="H45" s="14">
+        <v>11</v>
+      </c>
+      <c r="I45" s="14">
         <v>15</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <v>13</v>
       </c>
-      <c r="K45" s="15">
-        <v>11</v>
-      </c>
-      <c r="L45" s="15">
+      <c r="K45" s="14">
+        <v>11</v>
+      </c>
+      <c r="L45" s="14">
         <v>8</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="14">
         <v>12</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <f>A45</f>
         <v>45932</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>46</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>13</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>15</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <v>7</v>
       </c>
-      <c r="H46" s="13">
-        <v>11</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="H46" s="12">
+        <v>11</v>
+      </c>
+      <c r="I46" s="12">
         <v>5</v>
       </c>
-      <c r="J46" s="13">
-        <v>11</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="J46" s="12">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <f>A46</f>
         <v>45932</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>47</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>7</v>
       </c>
-      <c r="F47" s="13">
-        <v>11</v>
-      </c>
-      <c r="G47" s="13">
-        <v>11</v>
-      </c>
-      <c r="H47" s="13">
+      <c r="F47" s="12">
+        <v>11</v>
+      </c>
+      <c r="G47" s="12">
+        <v>11</v>
+      </c>
+      <c r="H47" s="12">
         <v>6</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <v>8</v>
       </c>
-      <c r="J47" s="13">
-        <v>11</v>
-      </c>
-      <c r="K47" s="13">
+      <c r="J47" s="12">
+        <v>11</v>
+      </c>
+      <c r="K47" s="12">
         <v>4</v>
       </c>
-      <c r="L47" s="13">
-        <v>11</v>
-      </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="L47" s="12">
+        <v>11</v>
+      </c>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <f>A47</f>
         <v>45932</v>
       </c>
@@ -2569,7 +2563,7 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>45936</v>
       </c>
       <c r="B49" s="1">
@@ -2581,19 +2575,35 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="E49" s="14">
+        <v>11</v>
+      </c>
+      <c r="F49" s="14">
+        <v>3</v>
+      </c>
+      <c r="G49" s="14">
+        <v>9</v>
+      </c>
+      <c r="H49" s="14">
+        <v>11</v>
+      </c>
+      <c r="I49" s="14">
+        <v>11</v>
+      </c>
+      <c r="J49" s="14">
+        <v>8</v>
+      </c>
+      <c r="K49" s="14">
+        <v>11</v>
+      </c>
+      <c r="L49" s="14">
+        <v>8</v>
+      </c>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <f>A49</f>
         <v>45936</v>
       </c>
@@ -2630,11 +2640,11 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2643,31 +2653,31 @@
       <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="13">
-        <v>11</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="E51" s="12">
+        <v>11</v>
+      </c>
+      <c r="F51" s="12">
         <v>3</v>
       </c>
-      <c r="G51" s="13">
-        <v>11</v>
-      </c>
-      <c r="H51" s="13">
+      <c r="G51" s="12">
+        <v>11</v>
+      </c>
+      <c r="H51" s="12">
         <v>7</v>
       </c>
-      <c r="I51" s="13">
-        <v>11</v>
-      </c>
-      <c r="J51" s="13">
+      <c r="I51" s="12">
+        <v>11</v>
+      </c>
+      <c r="J51" s="12">
         <v>7</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <f>A51</f>
         <v>45936</v>
       </c>
@@ -2680,31 +2690,31 @@
       <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>2</v>
       </c>
-      <c r="F52" s="14">
-        <v>11</v>
-      </c>
-      <c r="G52" s="14">
+      <c r="F52" s="13">
+        <v>11</v>
+      </c>
+      <c r="G52" s="13">
         <v>4</v>
       </c>
-      <c r="H52" s="14">
-        <v>11</v>
-      </c>
-      <c r="I52" s="14">
+      <c r="H52" s="13">
+        <v>11</v>
+      </c>
+      <c r="I52" s="13">
         <v>4</v>
       </c>
-      <c r="J52" s="14">
-        <v>11</v>
-      </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="J52" s="13">
+        <v>11</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>45937</v>
       </c>
       <c r="B53" s="4">
@@ -2740,11 +2750,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <f>A53</f>
         <v>45937</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2753,39 +2763,39 @@
       <c r="D54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="13">
-        <v>11</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="E54" s="12">
+        <v>11</v>
+      </c>
+      <c r="F54" s="12">
         <v>6</v>
       </c>
-      <c r="G54" s="13">
-        <v>11</v>
-      </c>
-      <c r="H54" s="13">
+      <c r="G54" s="12">
+        <v>11</v>
+      </c>
+      <c r="H54" s="12">
         <v>5</v>
       </c>
-      <c r="I54" s="13">
-        <v>11</v>
-      </c>
-      <c r="J54" s="13">
+      <c r="I54" s="12">
+        <v>11</v>
+      </c>
+      <c r="J54" s="12">
         <v>13</v>
       </c>
-      <c r="K54" s="13">
-        <v>11</v>
-      </c>
-      <c r="L54" s="13">
+      <c r="K54" s="12">
+        <v>11</v>
+      </c>
+      <c r="L54" s="12">
         <v>5</v>
       </c>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <f>A54</f>
         <v>45937</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2794,31 +2804,31 @@
       <c r="D55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>5</v>
       </c>
-      <c r="F55" s="13">
-        <v>11</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="F55" s="12">
+        <v>11</v>
+      </c>
+      <c r="G55" s="12">
         <v>6</v>
       </c>
-      <c r="H55" s="13">
-        <v>11</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="H55" s="12">
+        <v>11</v>
+      </c>
+      <c r="I55" s="12">
         <v>10</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="12">
         <v>12</v>
       </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <f>A55</f>
         <v>45937</v>
       </c>
@@ -2855,7 +2865,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <v>45938</v>
       </c>
       <c r="B57" s="4">
@@ -2899,11 +2909,11 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <f>A57</f>
         <v>45938</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2912,76 +2922,76 @@
       <c r="D58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="13">
-        <v>11</v>
-      </c>
-      <c r="F58" s="13">
-        <v>9</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="E58" s="12">
+        <v>11</v>
+      </c>
+      <c r="F58" s="12">
+        <v>9</v>
+      </c>
+      <c r="G58" s="12">
         <v>10</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="12">
         <v>12</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="12">
         <v>12</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="12">
         <v>10</v>
       </c>
-      <c r="K58" s="13">
-        <v>11</v>
-      </c>
-      <c r="L58" s="13">
+      <c r="K58" s="12">
+        <v>11</v>
+      </c>
+      <c r="L58" s="12">
         <v>6</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <f>A58</f>
         <v>45938</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>59</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="13">
-        <v>11</v>
-      </c>
-      <c r="F59" s="13">
-        <v>9</v>
-      </c>
-      <c r="G59" s="13">
+      <c r="E59" s="12">
+        <v>11</v>
+      </c>
+      <c r="F59" s="12">
+        <v>9</v>
+      </c>
+      <c r="G59" s="12">
         <v>7</v>
       </c>
-      <c r="H59" s="13">
-        <v>11</v>
-      </c>
-      <c r="I59" s="13">
+      <c r="H59" s="12">
+        <v>11</v>
+      </c>
+      <c r="I59" s="12">
         <v>2</v>
       </c>
-      <c r="J59" s="13">
-        <v>11</v>
-      </c>
-      <c r="K59" s="13">
+      <c r="J59" s="12">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12">
         <v>5</v>
       </c>
-      <c r="L59" s="13">
-        <v>11</v>
-      </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+      <c r="L59" s="12">
+        <v>11</v>
+      </c>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <f>A59</f>
         <v>45938</v>
       </c>
@@ -3018,7 +3028,7 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>45943</v>
       </c>
       <c r="B61" s="4">
@@ -3030,35 +3040,35 @@
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="15">
-        <v>11</v>
-      </c>
-      <c r="F61" s="15">
-        <v>9</v>
-      </c>
-      <c r="G61" s="15">
-        <v>11</v>
-      </c>
-      <c r="H61" s="15">
+      <c r="E61" s="14">
+        <v>11</v>
+      </c>
+      <c r="F61" s="14">
+        <v>9</v>
+      </c>
+      <c r="G61" s="14">
+        <v>11</v>
+      </c>
+      <c r="H61" s="14">
         <v>7</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <v>8</v>
       </c>
-      <c r="J61" s="15">
-        <v>11</v>
-      </c>
-      <c r="K61" s="15">
-        <v>11</v>
-      </c>
-      <c r="L61" s="15">
+      <c r="J61" s="14">
+        <v>11</v>
+      </c>
+      <c r="K61" s="14">
+        <v>11</v>
+      </c>
+      <c r="L61" s="14">
         <v>7</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <f>A61</f>
         <v>45943</v>
       </c>
@@ -3095,7 +3105,7 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <f>A62</f>
         <v>45943</v>
       </c>
@@ -3120,10 +3130,10 @@
       <c r="H63" s="3">
         <v>6</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <v>1</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="12">
         <v>11</v>
       </c>
       <c r="K63" s="3">
@@ -3136,7 +3146,7 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <f>A63</f>
         <v>45943</v>
       </c>
@@ -3177,7 +3187,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <v>45944</v>
       </c>
       <c r="B65" s="4">
@@ -3189,39 +3199,39 @@
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="15">
-        <v>11</v>
-      </c>
-      <c r="F65" s="15">
+      <c r="E65" s="14">
+        <v>11</v>
+      </c>
+      <c r="F65" s="14">
         <v>4</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <v>6</v>
       </c>
-      <c r="H65" s="15">
-        <v>11</v>
-      </c>
-      <c r="I65" s="15">
+      <c r="H65" s="14">
+        <v>11</v>
+      </c>
+      <c r="I65" s="14">
         <v>8</v>
       </c>
-      <c r="J65" s="15">
-        <v>11</v>
-      </c>
-      <c r="K65" s="15">
-        <v>11</v>
-      </c>
-      <c r="L65" s="15">
+      <c r="J65" s="14">
+        <v>11</v>
+      </c>
+      <c r="K65" s="14">
+        <v>11</v>
+      </c>
+      <c r="L65" s="14">
         <v>4</v>
       </c>
-      <c r="M65" s="15">
-        <v>9</v>
-      </c>
-      <c r="N65" s="15">
+      <c r="M65" s="14">
+        <v>9</v>
+      </c>
+      <c r="N65" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <f>A65</f>
         <v>45944</v>
       </c>
@@ -3234,35 +3244,35 @@
       <c r="D66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="13">
-        <v>11</v>
-      </c>
-      <c r="F66" s="13">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13">
+      <c r="E66" s="12">
+        <v>11</v>
+      </c>
+      <c r="F66" s="12">
+        <v>9</v>
+      </c>
+      <c r="G66" s="12">
         <v>6</v>
       </c>
-      <c r="H66" s="13">
-        <v>11</v>
-      </c>
-      <c r="I66" s="13">
+      <c r="H66" s="12">
+        <v>11</v>
+      </c>
+      <c r="I66" s="12">
         <v>4</v>
       </c>
-      <c r="J66" s="13">
-        <v>11</v>
-      </c>
-      <c r="K66" s="13">
+      <c r="J66" s="12">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12">
         <v>7</v>
       </c>
-      <c r="L66" s="13">
-        <v>11</v>
-      </c>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
+      <c r="L66" s="12">
+        <v>11</v>
+      </c>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <f>A66</f>
         <v>45944</v>
       </c>
@@ -3275,19 +3285,35 @@
       <c r="D67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="E67" s="15">
+        <v>7</v>
+      </c>
+      <c r="F67" s="15">
+        <v>11</v>
+      </c>
+      <c r="G67" s="15">
+        <v>11</v>
+      </c>
+      <c r="H67" s="15">
+        <v>6</v>
+      </c>
+      <c r="I67" s="15">
+        <v>5</v>
+      </c>
+      <c r="J67" s="15">
+        <v>11</v>
+      </c>
+      <c r="K67" s="15">
+        <v>7</v>
+      </c>
+      <c r="L67" s="15">
+        <v>11</v>
+      </c>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <f>A67</f>
         <v>45944</v>
       </c>
@@ -3324,7 +3350,7 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <v>45945</v>
       </c>
       <c r="B69" s="4">
@@ -3364,7 +3390,7 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <f>A69</f>
         <v>45945</v>
       </c>
@@ -3377,19 +3403,31 @@
       <c r="D70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
+      <c r="E70" s="12">
+        <v>11</v>
+      </c>
+      <c r="F70" s="12">
+        <v>8</v>
+      </c>
+      <c r="G70" s="12">
+        <v>11</v>
+      </c>
+      <c r="H70" s="12">
+        <v>6</v>
+      </c>
+      <c r="I70" s="12">
+        <v>13</v>
+      </c>
+      <c r="J70" s="12">
+        <v>11</v>
+      </c>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <f>A70</f>
         <v>45945</v>
       </c>
@@ -3434,7 +3472,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="12">
+      <c r="A72" s="11">
         <f>A71</f>
         <v>45945</v>
       </c>
@@ -3471,7 +3509,7 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <v>45946</v>
       </c>
       <c r="B73" s="4">
@@ -3511,7 +3549,7 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <f>A73</f>
         <v>45946</v>
       </c>
@@ -3552,7 +3590,7 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <f>A74</f>
         <v>45946</v>
       </c>
@@ -3597,7 +3635,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <f>A75</f>
         <v>45946</v>
       </c>
@@ -3610,19 +3648,31 @@
       <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="E76" s="13">
+        <v>11</v>
+      </c>
+      <c r="F76" s="13">
+        <v>3</v>
+      </c>
+      <c r="G76" s="13">
+        <v>11</v>
+      </c>
+      <c r="H76" s="13">
+        <v>4</v>
+      </c>
+      <c r="I76" s="13">
+        <v>11</v>
+      </c>
+      <c r="J76" s="13">
+        <v>2</v>
+      </c>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <v>45950</v>
       </c>
       <c r="B77" s="4">
@@ -3634,19 +3684,35 @@
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="E77" s="1">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1">
+        <v>13</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11</v>
+      </c>
+      <c r="I77" s="1">
+        <v>7</v>
+      </c>
+      <c r="J77" s="1">
+        <v>11</v>
+      </c>
+      <c r="K77" s="1">
+        <v>11</v>
+      </c>
+      <c r="L77" s="1">
+        <v>13</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <f>A77</f>
         <v>45950</v>
       </c>
@@ -3659,19 +3725,39 @@
       <c r="D78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="E78" s="3">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11</v>
+      </c>
+      <c r="H78" s="3">
+        <v>9</v>
+      </c>
+      <c r="I78" s="3">
+        <v>11</v>
+      </c>
+      <c r="J78" s="3">
+        <v>9</v>
+      </c>
+      <c r="K78" s="3">
+        <v>9</v>
+      </c>
+      <c r="L78" s="3">
+        <v>11</v>
+      </c>
+      <c r="M78" s="3">
+        <v>11</v>
+      </c>
+      <c r="N78" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <f>A78</f>
         <v>45950</v>
       </c>
@@ -3684,19 +3770,19 @@
       <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <f>A79</f>
         <v>45950</v>
       </c>
@@ -3709,19 +3795,31 @@
       <c r="D80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="E80" s="2">
+        <v>4</v>
+      </c>
+      <c r="F80" s="2">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7</v>
+      </c>
+      <c r="H80" s="2">
+        <v>11</v>
+      </c>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
+      <c r="J80" s="2">
+        <v>11</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <v>45951</v>
       </c>
       <c r="B81" s="4">
@@ -3733,19 +3831,39 @@
       <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1">
+        <v>11</v>
+      </c>
+      <c r="I81" s="1">
+        <v>11</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1">
+        <v>11</v>
+      </c>
+      <c r="L81" s="1">
+        <v>5</v>
+      </c>
+      <c r="M81" s="1">
+        <v>9</v>
+      </c>
+      <c r="N81" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <f>A81</f>
         <v>45951</v>
       </c>
@@ -3770,7 +3888,7 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <f>A82</f>
         <v>45951</v>
       </c>
@@ -3795,7 +3913,7 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <f>A83</f>
         <v>45951</v>
       </c>
@@ -3808,19 +3926,31 @@
       <c r="D84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="E84" s="2">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>11</v>
+      </c>
+      <c r="H84" s="2">
+        <v>9</v>
+      </c>
+      <c r="I84" s="2">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2">
+        <v>7</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <v>45952</v>
       </c>
       <c r="B85" s="4">
@@ -3844,7 +3974,7 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <f>A85</f>
         <v>45952</v>
       </c>
@@ -3869,7 +3999,7 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <f>A86</f>
         <v>45952</v>
       </c>
@@ -3894,7 +4024,7 @@
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <f>A87</f>
         <v>45952</v>
       </c>
@@ -3919,7 +4049,7 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89" s="9">
         <v>45953</v>
       </c>
       <c r="B89" s="4">
@@ -3943,7 +4073,7 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <f>A89</f>
         <v>45953</v>
       </c>
@@ -3968,7 +4098,7 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <f>A90</f>
         <v>45953</v>
       </c>
@@ -3993,7 +4123,7 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="12">
+      <c r="A92" s="11">
         <f>A91</f>
         <v>45953</v>
       </c>
@@ -4018,7 +4148,7 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <v>45957</v>
       </c>
       <c r="B93" s="4">
@@ -4042,7 +4172,7 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <f>A93</f>
         <v>45957</v>
       </c>
@@ -4067,7 +4197,7 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <f>A94</f>
         <v>45957</v>
       </c>
@@ -4092,7 +4222,7 @@
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="12">
+      <c r="A96" s="11">
         <f>A95</f>
         <v>45957</v>
       </c>
@@ -4117,7 +4247,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <v>45958</v>
       </c>
       <c r="B97" s="4">
@@ -4141,7 +4271,7 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <f>A97</f>
         <v>45958</v>
       </c>
@@ -4166,7 +4296,7 @@
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <f>A98</f>
         <v>45958</v>
       </c>
@@ -4191,7 +4321,7 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="12">
+      <c r="A100" s="11">
         <f>A99</f>
         <v>45958</v>
       </c>
@@ -4216,7 +4346,7 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <v>45959</v>
       </c>
       <c r="B101" s="4">
@@ -4240,7 +4370,7 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+      <c r="A102" s="10">
         <f>A101</f>
         <v>45959</v>
       </c>
@@ -4265,7 +4395,7 @@
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+      <c r="A103" s="10">
         <f>A102</f>
         <v>45959</v>
       </c>
@@ -4290,7 +4420,7 @@
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="12">
+      <c r="A104" s="11">
         <f>A103</f>
         <v>45959</v>
       </c>
@@ -4315,7 +4445,7 @@
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
+      <c r="A105" s="9">
         <v>45960</v>
       </c>
       <c r="B105" s="4">
@@ -4339,7 +4469,7 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
+      <c r="A106" s="10">
         <f>A105</f>
         <v>45960</v>
       </c>
@@ -4364,7 +4494,7 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="A107" s="10">
         <f>A106</f>
         <v>45960</v>
       </c>
@@ -4389,7 +4519,7 @@
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="12">
+      <c r="A108" s="11">
         <f>A107</f>
         <v>45960</v>
       </c>
@@ -4414,7 +4544,7 @@
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="10">
+      <c r="A109" s="9">
         <v>45964</v>
       </c>
       <c r="B109" s="4">
@@ -4438,7 +4568,7 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
+      <c r="A110" s="10">
         <f>A109</f>
         <v>45964</v>
       </c>
@@ -4463,7 +4593,7 @@
       <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
+      <c r="A111" s="10">
         <f>A110</f>
         <v>45964</v>
       </c>
@@ -4488,7 +4618,7 @@
       <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <f>A111</f>
         <v>45964</v>
       </c>
@@ -4513,7 +4643,7 @@
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
+      <c r="A113" s="9">
         <v>45965</v>
       </c>
       <c r="B113" s="4">
@@ -4537,7 +4667,7 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
+      <c r="A114" s="10">
         <f>A113</f>
         <v>45965</v>
       </c>
@@ -4562,7 +4692,7 @@
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
+      <c r="A115" s="10">
         <f>A114</f>
         <v>45965</v>
       </c>
@@ -4587,7 +4717,7 @@
       <c r="N115" s="3"/>
     </row>
     <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="12">
+      <c r="A116" s="11">
         <f>A115</f>
         <v>45965</v>
       </c>
@@ -4612,7 +4742,7 @@
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="10">
+      <c r="A117" s="9">
         <v>45966</v>
       </c>
       <c r="B117" s="4">
@@ -4636,7 +4766,7 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118" s="10">
         <f>A117</f>
         <v>45966</v>
       </c>
@@ -4661,7 +4791,7 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <f>A118</f>
         <v>45966</v>
       </c>
@@ -4686,7 +4816,7 @@
       <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="12">
+      <c r="A120" s="11">
         <f>A119</f>
         <v>45966</v>
       </c>
@@ -4711,7 +4841,7 @@
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
+      <c r="A121" s="9">
         <v>45967</v>
       </c>
       <c r="B121" s="4">
@@ -4735,7 +4865,7 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="A122" s="10">
         <f>A121</f>
         <v>45967</v>
       </c>
@@ -4760,7 +4890,7 @@
       <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="A123" s="10">
         <f>A122</f>
         <v>45967</v>
       </c>
@@ -4785,7 +4915,7 @@
       <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <f>A123</f>
         <v>45967</v>
       </c>
@@ -4810,7 +4940,7 @@
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="10">
+      <c r="A125" s="9">
         <v>45971</v>
       </c>
       <c r="B125" s="4">
@@ -4834,7 +4964,7 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="11">
+      <c r="A126" s="10">
         <f>A125</f>
         <v>45971</v>
       </c>
@@ -4859,7 +4989,7 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
+      <c r="A127" s="10">
         <f>A126</f>
         <v>45971</v>
       </c>
@@ -4884,7 +5014,7 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="12">
+      <c r="A128" s="11">
         <f>A127</f>
         <v>45971</v>
       </c>
@@ -4909,7 +5039,7 @@
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
+      <c r="A129" s="9">
         <v>45972</v>
       </c>
       <c r="B129" s="4">
@@ -4933,7 +5063,7 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
+      <c r="A130" s="10">
         <f>A129</f>
         <v>45972</v>
       </c>
@@ -4958,7 +5088,7 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
+      <c r="A131" s="10">
         <f>A130</f>
         <v>45972</v>
       </c>
@@ -4983,7 +5113,7 @@
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="12">
+      <c r="A132" s="11">
         <f>A131</f>
         <v>45972</v>
       </c>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5181DDF-9C6A-4E44-92B6-DD555F54EAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20CF06-C9D5-4EAA-8228-388DA47157EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -3770,16 +3770,32 @@
       <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
+      <c r="E79" s="12">
+        <v>11</v>
+      </c>
+      <c r="F79" s="12">
+        <v>9</v>
+      </c>
+      <c r="G79" s="12">
+        <v>6</v>
+      </c>
+      <c r="H79" s="12">
+        <v>11</v>
+      </c>
+      <c r="I79" s="12">
+        <v>11</v>
+      </c>
+      <c r="J79" s="12">
+        <v>2</v>
+      </c>
+      <c r="K79" s="12">
+        <v>12</v>
+      </c>
+      <c r="L79" s="12">
+        <v>10</v>
+      </c>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
@@ -3876,16 +3892,16 @@
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -3901,12 +3917,24 @@
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="E83" s="3">
+        <v>9</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20CF06-C9D5-4EAA-8228-388DA47157EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D885F-7204-4978-B42E-52F470F4F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -3990,16 +3990,36 @@
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="E85" s="1">
+        <v>6</v>
+      </c>
+      <c r="F85" s="1">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1">
+        <v>9</v>
+      </c>
+      <c r="I85" s="1">
+        <v>11</v>
+      </c>
+      <c r="J85" s="1">
+        <v>8</v>
+      </c>
+      <c r="K85" s="1">
+        <v>5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>11</v>
+      </c>
+      <c r="M85" s="1">
+        <v>4</v>
+      </c>
+      <c r="N85" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
@@ -4015,14 +4035,30 @@
       <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="E86" s="3">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7</v>
+      </c>
+      <c r="G86" s="3">
+        <v>7</v>
+      </c>
+      <c r="H86" s="3">
+        <v>11</v>
+      </c>
+      <c r="I86" s="3">
+        <v>7</v>
+      </c>
+      <c r="J86" s="3">
+        <v>11</v>
+      </c>
+      <c r="K86" s="3">
+        <v>6</v>
+      </c>
+      <c r="L86" s="3">
+        <v>11</v>
+      </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
@@ -4040,16 +4076,16 @@
       <c r="D87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
@@ -4065,12 +4101,24 @@
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="E88" s="2">
+        <v>5</v>
+      </c>
+      <c r="F88" s="2">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2">
+        <v>11</v>
+      </c>
+      <c r="I88" s="2">
+        <v>5</v>
+      </c>
+      <c r="J88" s="2">
+        <v>11</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4089,12 +4137,24 @@
       <c r="D89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>11</v>
+      </c>
+      <c r="G89" s="1">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1">
+        <v>11</v>
+      </c>
+      <c r="I89" s="1">
+        <v>5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>11</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D885F-7204-4978-B42E-52F470F4F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA0D4D-2A43-43E2-91F5-2EAD03E3E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4174,14 +4174,30 @@
       <c r="D90" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="E90" s="3">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3">
+        <v>11</v>
+      </c>
+      <c r="H90" s="3">
+        <v>8</v>
+      </c>
+      <c r="I90" s="3">
+        <v>11</v>
+      </c>
+      <c r="J90" s="3">
+        <v>8</v>
+      </c>
+      <c r="K90" s="3">
+        <v>11</v>
+      </c>
+      <c r="L90" s="3">
+        <v>6</v>
+      </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
@@ -4199,16 +4215,16 @@
       <c r="D91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
@@ -4224,12 +4240,24 @@
       <c r="D92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="E92" s="2">
+        <v>5</v>
+      </c>
+      <c r="F92" s="2">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2">
+        <v>8</v>
+      </c>
+      <c r="H92" s="2">
+        <v>11</v>
+      </c>
+      <c r="I92" s="2">
+        <v>6</v>
+      </c>
+      <c r="J92" s="2">
+        <v>11</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA0D4D-2A43-43E2-91F5-2EAD03E3E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30D3B12-C41E-46DF-99F6-3BF093450546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4076,16 +4076,36 @@
       <c r="D87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="E87" s="12">
+        <v>11</v>
+      </c>
+      <c r="F87" s="12">
+        <v>6</v>
+      </c>
+      <c r="G87" s="12">
+        <v>9</v>
+      </c>
+      <c r="H87" s="12">
+        <v>11</v>
+      </c>
+      <c r="I87" s="12">
+        <v>8</v>
+      </c>
+      <c r="J87" s="12">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12">
+        <v>11</v>
+      </c>
+      <c r="L87" s="12">
+        <v>7</v>
+      </c>
+      <c r="M87" s="12">
+        <v>11</v>
+      </c>
+      <c r="N87" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
@@ -4215,16 +4235,32 @@
       <c r="D91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="E91" s="12">
+        <v>11</v>
+      </c>
+      <c r="F91" s="12">
+        <v>9</v>
+      </c>
+      <c r="G91" s="12">
+        <v>11</v>
+      </c>
+      <c r="H91" s="12">
+        <v>8</v>
+      </c>
+      <c r="I91" s="12">
+        <v>8</v>
+      </c>
+      <c r="J91" s="12">
+        <v>11</v>
+      </c>
+      <c r="K91" s="12">
+        <v>11</v>
+      </c>
+      <c r="L91" s="12">
+        <v>7</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
@@ -4276,16 +4312,36 @@
       <c r="D93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="E93" s="1">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>11</v>
+      </c>
+      <c r="I93" s="1">
+        <v>11</v>
+      </c>
+      <c r="J93" s="1">
+        <v>5</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9</v>
+      </c>
+      <c r="L93" s="1">
+        <v>11</v>
+      </c>
+      <c r="M93" s="1">
+        <v>11</v>
+      </c>
+      <c r="N93" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
@@ -4301,16 +4357,16 @@
       <c r="D94" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
@@ -4326,16 +4382,16 @@
       <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
@@ -4351,14 +4407,30 @@
       <c r="D96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2">
+        <v>12</v>
+      </c>
+      <c r="I96" s="2">
+        <v>11</v>
+      </c>
+      <c r="J96" s="2">
+        <v>9</v>
+      </c>
+      <c r="K96" s="2">
+        <v>8</v>
+      </c>
+      <c r="L96" s="2">
+        <v>11</v>
+      </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
@@ -4474,12 +4546,24 @@
       <c r="D101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1">
+        <v>10</v>
+      </c>
+      <c r="H101" s="1">
+        <v>12</v>
+      </c>
+      <c r="I101" s="1">
+        <v>9</v>
+      </c>
+      <c r="J101" s="1">
+        <v>11</v>
+      </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30D3B12-C41E-46DF-99F6-3BF093450546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208968F0-D756-4A1F-AAAB-C90BA65457AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4382,16 +4382,32 @@
       <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
+      <c r="E95" s="12">
+        <v>12</v>
+      </c>
+      <c r="F95" s="12">
+        <v>14</v>
+      </c>
+      <c r="G95" s="12">
+        <v>10</v>
+      </c>
+      <c r="H95" s="12">
+        <v>12</v>
+      </c>
+      <c r="I95" s="12">
+        <v>11</v>
+      </c>
+      <c r="J95" s="12">
+        <v>8</v>
+      </c>
+      <c r="K95" s="12">
+        <v>6</v>
+      </c>
+      <c r="L95" s="12">
+        <v>11</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
@@ -4447,16 +4463,36 @@
       <c r="D97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="E97" s="1">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1">
+        <v>7</v>
+      </c>
+      <c r="H97" s="1">
+        <v>11</v>
+      </c>
+      <c r="I97" s="1">
+        <v>11</v>
+      </c>
+      <c r="J97" s="1">
+        <v>6</v>
+      </c>
+      <c r="K97" s="1">
+        <v>15</v>
+      </c>
+      <c r="L97" s="1">
+        <v>17</v>
+      </c>
+      <c r="M97" s="1">
+        <v>11</v>
+      </c>
+      <c r="N97" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
@@ -4472,16 +4508,36 @@
       <c r="D98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
+      <c r="E98" s="3">
+        <v>11</v>
+      </c>
+      <c r="F98" s="3">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3">
+        <v>10</v>
+      </c>
+      <c r="H98" s="3">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3">
+        <v>7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>11</v>
+      </c>
+      <c r="K98" s="3">
+        <v>15</v>
+      </c>
+      <c r="L98" s="3">
+        <v>13</v>
+      </c>
+      <c r="M98" s="3">
+        <v>12</v>
+      </c>
+      <c r="N98" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
@@ -4497,16 +4553,36 @@
       <c r="D99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+      <c r="E99" s="3">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3">
+        <v>12</v>
+      </c>
+      <c r="H99" s="3">
+        <v>10</v>
+      </c>
+      <c r="I99" s="3">
+        <v>7</v>
+      </c>
+      <c r="J99" s="3">
+        <v>11</v>
+      </c>
+      <c r="K99" s="3">
+        <v>6</v>
+      </c>
+      <c r="L99" s="3">
+        <v>11</v>
+      </c>
+      <c r="M99" s="3">
+        <v>11</v>
+      </c>
+      <c r="N99" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
@@ -4522,14 +4598,30 @@
       <c r="D100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="E100" s="2">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2">
+        <v>13</v>
+      </c>
+      <c r="G100" s="2">
+        <v>11</v>
+      </c>
+      <c r="H100" s="2">
+        <v>7</v>
+      </c>
+      <c r="I100" s="2">
+        <v>9</v>
+      </c>
+      <c r="J100" s="2">
+        <v>11</v>
+      </c>
+      <c r="K100" s="2">
+        <v>7</v>
+      </c>
+      <c r="L100" s="2">
+        <v>11</v>
+      </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208968F0-D756-4A1F-AAAB-C90BA65457AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C1DEA-FA52-4109-A446-637BC2A92510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -361,17 +361,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -694,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N132"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4488,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="M97" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N97" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C1DEA-FA52-4109-A446-637BC2A92510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8150C1E-5EDC-4868-8823-7BFEF0B57351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -361,7 +361,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -684,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4562,10 +4572,10 @@
         <v>11</v>
       </c>
       <c r="K99" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L99" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M99" s="3">
         <v>11</v>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8150C1E-5EDC-4868-8823-7BFEF0B57351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7D6ED-51CD-4379-AD6E-502C7C9AAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +352,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4675,16 +4681,36 @@
       <c r="D102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
+      <c r="E102" s="3">
+        <v>6</v>
+      </c>
+      <c r="F102" s="3">
+        <v>11</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3">
+        <v>11</v>
+      </c>
+      <c r="I102" s="3">
+        <v>11</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7</v>
+      </c>
+      <c r="K102" s="3">
+        <v>11</v>
+      </c>
+      <c r="L102" s="3">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
+        <v>11</v>
+      </c>
+      <c r="N102" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
@@ -4700,14 +4726,30 @@
       <c r="D103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="E103" s="3">
+        <v>11</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9</v>
+      </c>
+      <c r="G103" s="3">
+        <v>5</v>
+      </c>
+      <c r="H103" s="3">
+        <v>11</v>
+      </c>
+      <c r="I103" s="3">
+        <v>13</v>
+      </c>
+      <c r="J103" s="3">
+        <v>15</v>
+      </c>
+      <c r="K103" s="3">
+        <v>9</v>
+      </c>
+      <c r="L103" s="3">
+        <v>11</v>
+      </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
@@ -4725,16 +4767,16 @@
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
@@ -4749,16 +4791,16 @@
       <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -4774,16 +4816,16 @@
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
@@ -4799,16 +4841,16 @@
       <c r="D107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
@@ -4824,14 +4866,30 @@
       <c r="D108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="E108" s="2">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2">
+        <v>4</v>
+      </c>
+      <c r="H108" s="2">
+        <v>11</v>
+      </c>
+      <c r="I108" s="2">
+        <v>11</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5</v>
+      </c>
+      <c r="K108" s="2">
+        <v>7</v>
+      </c>
+      <c r="L108" s="2">
+        <v>11</v>
+      </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
@@ -4947,12 +5005,24 @@
       <c r="D113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="E113" s="1">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1">
+        <v>11</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>11</v>
+      </c>
+      <c r="I113" s="1">
+        <v>8</v>
+      </c>
+      <c r="J113" s="1">
+        <v>11</v>
+      </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7D6ED-51CD-4379-AD6E-502C7C9AAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E73694-5B39-4039-8FF8-C80BD4DF961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,12 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4767,16 +4761,28 @@
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
+      <c r="E104" s="13">
+        <v>11</v>
+      </c>
+      <c r="F104" s="13">
+        <v>8</v>
+      </c>
+      <c r="G104" s="13">
+        <v>11</v>
+      </c>
+      <c r="H104" s="13">
+        <v>5</v>
+      </c>
+      <c r="I104" s="13">
+        <v>11</v>
+      </c>
+      <c r="J104" s="13">
+        <v>6</v>
+      </c>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
@@ -4791,16 +4797,32 @@
       <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
+      <c r="E105" s="14">
+        <v>11</v>
+      </c>
+      <c r="F105" s="14">
+        <v>13</v>
+      </c>
+      <c r="G105" s="14">
+        <v>11</v>
+      </c>
+      <c r="H105" s="14">
+        <v>7</v>
+      </c>
+      <c r="I105" s="14">
+        <v>8</v>
+      </c>
+      <c r="J105" s="14">
+        <v>11</v>
+      </c>
+      <c r="K105" s="14">
+        <v>8</v>
+      </c>
+      <c r="L105" s="14">
+        <v>11</v>
+      </c>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -4816,16 +4838,36 @@
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
+      <c r="E106" s="12">
+        <v>7</v>
+      </c>
+      <c r="F106" s="12">
+        <v>11</v>
+      </c>
+      <c r="G106" s="12">
+        <v>7</v>
+      </c>
+      <c r="H106" s="12">
+        <v>11</v>
+      </c>
+      <c r="I106" s="12">
+        <v>11</v>
+      </c>
+      <c r="J106" s="12">
+        <v>8</v>
+      </c>
+      <c r="K106" s="12">
+        <v>11</v>
+      </c>
+      <c r="L106" s="12">
+        <v>9</v>
+      </c>
+      <c r="M106" s="12">
+        <v>11</v>
+      </c>
+      <c r="N106" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
@@ -4906,16 +4948,28 @@
       <c r="D109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="E109" s="14">
+        <v>11</v>
+      </c>
+      <c r="F109" s="14">
+        <v>6</v>
+      </c>
+      <c r="G109" s="14">
+        <v>11</v>
+      </c>
+      <c r="H109" s="14">
+        <v>6</v>
+      </c>
+      <c r="I109" s="14">
+        <v>11</v>
+      </c>
+      <c r="J109" s="14">
+        <v>6</v>
+      </c>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
@@ -4931,16 +4985,16 @@
       <c r="D110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
@@ -4956,16 +5010,36 @@
       <c r="D111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
+      <c r="E111" s="3">
+        <v>11</v>
+      </c>
+      <c r="F111" s="3">
+        <v>6</v>
+      </c>
+      <c r="G111" s="3">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3">
+        <v>11</v>
+      </c>
+      <c r="I111" s="3">
+        <v>9</v>
+      </c>
+      <c r="J111" s="3">
+        <v>11</v>
+      </c>
+      <c r="K111" s="3">
+        <v>13</v>
+      </c>
+      <c r="L111" s="3">
+        <v>11</v>
+      </c>
+      <c r="M111" s="3">
+        <v>8</v>
+      </c>
+      <c r="N111" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
@@ -4981,12 +5055,24 @@
       <c r="D112" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="E112" s="2">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2">
+        <v>11</v>
+      </c>
+      <c r="G112" s="2">
+        <v>9</v>
+      </c>
+      <c r="H112" s="2">
+        <v>11</v>
+      </c>
+      <c r="I112" s="2">
+        <v>6</v>
+      </c>
+      <c r="J112" s="2">
+        <v>11</v>
+      </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -5141,12 +5227,24 @@
       <c r="D118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="E118" s="3">
+        <v>11</v>
+      </c>
+      <c r="F118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3">
+        <v>11</v>
+      </c>
+      <c r="H118" s="3">
+        <v>8</v>
+      </c>
+      <c r="I118" s="3">
+        <v>12</v>
+      </c>
+      <c r="J118" s="3">
+        <v>10</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E73694-5B39-4039-8FF8-C80BD4DF961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDE0E6A-7C15-4CBE-9A70-493EC00B0289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +352,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -4883,16 +4886,36 @@
       <c r="D107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="E107" s="12">
+        <v>8</v>
+      </c>
+      <c r="F107" s="12">
+        <v>11</v>
+      </c>
+      <c r="G107" s="12">
+        <v>11</v>
+      </c>
+      <c r="H107" s="12">
+        <v>8</v>
+      </c>
+      <c r="I107" s="12">
+        <v>12</v>
+      </c>
+      <c r="J107" s="12">
+        <v>10</v>
+      </c>
+      <c r="K107" s="12">
+        <v>3</v>
+      </c>
+      <c r="L107" s="12">
+        <v>11</v>
+      </c>
+      <c r="M107" s="12">
+        <v>12</v>
+      </c>
+      <c r="N107" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
@@ -5128,16 +5151,36 @@
       <c r="D114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
+      <c r="E114" s="3">
+        <v>6</v>
+      </c>
+      <c r="F114" s="3">
+        <v>11</v>
+      </c>
+      <c r="G114" s="3">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3">
+        <v>11</v>
+      </c>
+      <c r="I114" s="3">
+        <v>11</v>
+      </c>
+      <c r="J114" s="3">
+        <v>7</v>
+      </c>
+      <c r="K114" s="3">
+        <v>11</v>
+      </c>
+      <c r="L114" s="3">
+        <v>9</v>
+      </c>
+      <c r="M114" s="3">
+        <v>8</v>
+      </c>
+      <c r="N114" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
@@ -5153,16 +5196,16 @@
       <c r="D115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
     </row>
     <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
@@ -5178,16 +5221,16 @@
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="9">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDE0E6A-7C15-4CBE-9A70-493EC00B0289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEEB6D8-EE21-4369-A666-7D937121F7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -3895,16 +3895,28 @@
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="E82" s="12">
+        <v>9</v>
+      </c>
+      <c r="F82" s="12">
+        <v>11</v>
+      </c>
+      <c r="G82" s="12">
+        <v>8</v>
+      </c>
+      <c r="H82" s="12">
+        <v>11</v>
+      </c>
+      <c r="I82" s="12">
+        <v>4</v>
+      </c>
+      <c r="J82" s="12">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -5008,16 +5020,32 @@
       <c r="D110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
+      <c r="E110" s="12">
+        <v>7</v>
+      </c>
+      <c r="F110" s="12">
+        <v>11</v>
+      </c>
+      <c r="G110" s="12">
+        <v>11</v>
+      </c>
+      <c r="H110" s="12">
+        <v>7</v>
+      </c>
+      <c r="I110" s="12">
+        <v>9</v>
+      </c>
+      <c r="J110" s="12">
+        <v>11</v>
+      </c>
+      <c r="K110" s="12">
+        <v>11</v>
+      </c>
+      <c r="L110" s="12">
+        <v>13</v>
+      </c>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
@@ -5196,16 +5224,36 @@
       <c r="D115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
+      <c r="E115" s="12">
+        <v>11</v>
+      </c>
+      <c r="F115" s="12">
+        <v>2</v>
+      </c>
+      <c r="G115" s="12">
+        <v>3</v>
+      </c>
+      <c r="H115" s="12">
+        <v>11</v>
+      </c>
+      <c r="I115" s="12">
+        <v>11</v>
+      </c>
+      <c r="J115" s="12">
+        <v>3</v>
+      </c>
+      <c r="K115" s="12">
+        <v>9</v>
+      </c>
+      <c r="L115" s="12">
+        <v>11</v>
+      </c>
+      <c r="M115" s="12">
+        <v>9</v>
+      </c>
+      <c r="N115" s="12">
+        <v>11</v>
+      </c>
     </row>
     <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
@@ -5245,16 +5293,36 @@
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="E117" s="1">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7</v>
+      </c>
+      <c r="G117" s="1">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1">
+        <v>11</v>
+      </c>
+      <c r="I117" s="1">
+        <v>5</v>
+      </c>
+      <c r="J117" s="1">
+        <v>11</v>
+      </c>
+      <c r="K117" s="1">
+        <v>11</v>
+      </c>
+      <c r="L117" s="1">
+        <v>7</v>
+      </c>
+      <c r="M117" s="1">
+        <v>11</v>
+      </c>
+      <c r="N117" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
@@ -5307,14 +5375,30 @@
       <c r="D119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="E119" s="3">
+        <v>6</v>
+      </c>
+      <c r="F119" s="3">
+        <v>11</v>
+      </c>
+      <c r="G119" s="3">
+        <v>11</v>
+      </c>
+      <c r="H119" s="3">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3">
+        <v>11</v>
+      </c>
+      <c r="J119" s="3">
+        <v>9</v>
+      </c>
+      <c r="K119" s="3">
+        <v>11</v>
+      </c>
+      <c r="L119" s="3">
+        <v>9</v>
+      </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEEB6D8-EE21-4369-A666-7D937121F7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877CF7E-2212-4061-948E-C6E93EE29FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N132"/>
     </sheetView>
   </sheetViews>
@@ -5269,16 +5266,28 @@
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
+      <c r="E116" s="13">
+        <v>7</v>
+      </c>
+      <c r="F116" s="13">
+        <v>11</v>
+      </c>
+      <c r="G116" s="13">
+        <v>8</v>
+      </c>
+      <c r="H116" s="13">
+        <v>11</v>
+      </c>
+      <c r="I116" s="13">
+        <v>6</v>
+      </c>
+      <c r="J116" s="13">
+        <v>11</v>
+      </c>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
@@ -5416,16 +5425,36 @@
       <c r="D120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="E120" s="13">
+        <v>11</v>
+      </c>
+      <c r="F120" s="13">
+        <v>7</v>
+      </c>
+      <c r="G120" s="13">
+        <v>11</v>
+      </c>
+      <c r="H120" s="13">
+        <v>9</v>
+      </c>
+      <c r="I120" s="13">
+        <v>9</v>
+      </c>
+      <c r="J120" s="13">
+        <v>11</v>
+      </c>
+      <c r="K120" s="13">
+        <v>10</v>
+      </c>
+      <c r="L120" s="13">
+        <v>12</v>
+      </c>
+      <c r="M120" s="13">
+        <v>11</v>
+      </c>
+      <c r="N120" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
@@ -5440,14 +5469,30 @@
       <c r="D121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
+      <c r="E121" s="1">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1">
+        <v>11</v>
+      </c>
+      <c r="G121" s="1">
+        <v>11</v>
+      </c>
+      <c r="H121" s="1">
+        <v>9</v>
+      </c>
+      <c r="I121" s="1">
+        <v>7</v>
+      </c>
+      <c r="J121" s="1">
+        <v>11</v>
+      </c>
+      <c r="K121" s="1">
+        <v>6</v>
+      </c>
+      <c r="L121" s="1">
+        <v>11</v>
+      </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
@@ -5465,12 +5510,24 @@
       <c r="D122" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="E122" s="3">
+        <v>5</v>
+      </c>
+      <c r="F122" s="3">
+        <v>11</v>
+      </c>
+      <c r="G122" s="3">
+        <v>4</v>
+      </c>
+      <c r="H122" s="3">
+        <v>11</v>
+      </c>
+      <c r="I122" s="3">
+        <v>8</v>
+      </c>
+      <c r="J122" s="3">
+        <v>11</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -5515,12 +5572,24 @@
       <c r="D124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="E124" s="2">
+        <v>4</v>
+      </c>
+      <c r="F124" s="2">
+        <v>11</v>
+      </c>
+      <c r="G124" s="2">
+        <v>8</v>
+      </c>
+      <c r="H124" s="2">
+        <v>11</v>
+      </c>
+      <c r="I124" s="2">
+        <v>4</v>
+      </c>
+      <c r="J124" s="2">
+        <v>11</v>
+      </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877CF7E-2212-4061-948E-C6E93EE29FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F89D34-3DCC-488A-B879-1089FFFCD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,9 +322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N132"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +704,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="9">
+      <c r="A1" s="8">
         <v>45915</v>
       </c>
       <c r="B1" s="4">
@@ -747,7 +744,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <f>A1</f>
         <v>45915</v>
       </c>
@@ -792,48 +789,48 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f>A2</f>
         <v>45915</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12">
-        <v>11</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="E3" s="11">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
-        <v>11</v>
-      </c>
-      <c r="I3" s="12">
-        <v>11</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="H3" s="11">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11">
         <v>13</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <f>A3</f>
         <v>45915</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -874,7 +871,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>45916</v>
       </c>
       <c r="B5" s="4">
@@ -914,7 +911,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f>A5</f>
         <v>45916</v>
       </c>
@@ -955,7 +952,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f>A6</f>
         <v>45916</v>
       </c>
@@ -1000,11 +997,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f>A7</f>
         <v>45916</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1037,7 +1034,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>45917</v>
       </c>
       <c r="B9" s="4">
@@ -1077,7 +1074,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f>A9</f>
         <v>45917</v>
       </c>
@@ -1114,11 +1111,11 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f>A10</f>
         <v>45917</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1151,44 +1148,44 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f>A11</f>
         <v>45917</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="13">
-        <v>11</v>
-      </c>
-      <c r="F12" s="13">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13">
-        <v>11</v>
-      </c>
-      <c r="H12" s="13">
-        <v>6</v>
-      </c>
-      <c r="I12" s="13">
-        <v>11</v>
-      </c>
-      <c r="J12" s="13">
-        <v>9</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="E12" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12">
+        <v>11</v>
+      </c>
+      <c r="H12" s="12">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>45918</v>
       </c>
       <c r="B13" s="4">
@@ -1224,7 +1221,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f>A13</f>
         <v>45918</v>
       </c>
@@ -1261,48 +1258,48 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f>A14</f>
         <v>45918</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="12">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="11">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11">
         <v>13</v>
       </c>
-      <c r="G15" s="12">
-        <v>9</v>
-      </c>
-      <c r="H15" s="12">
-        <v>11</v>
-      </c>
-      <c r="I15" s="12">
-        <v>6</v>
-      </c>
-      <c r="J15" s="12">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="G15" s="11">
+        <v>9</v>
+      </c>
+      <c r="H15" s="11">
+        <v>11</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6</v>
+      </c>
+      <c r="J15" s="11">
+        <v>11</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <f>A15</f>
         <v>45918</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1339,7 +1336,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>45922</v>
       </c>
       <c r="B17" s="4">
@@ -1383,48 +1380,48 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f>A17</f>
         <v>45922</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>12</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>14</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>5</v>
       </c>
-      <c r="H18" s="12">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="H18" s="11">
+        <v>11</v>
+      </c>
+      <c r="I18" s="11">
         <v>4</v>
       </c>
-      <c r="J18" s="12">
-        <v>11</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="J18" s="11">
+        <v>11</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f>A18</f>
         <v>45922</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1457,11 +1454,11 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <f>A19</f>
         <v>45922</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1494,7 +1491,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>45923</v>
       </c>
       <c r="B21" s="4">
@@ -1538,7 +1535,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f>A21</f>
         <v>45923</v>
       </c>
@@ -1579,11 +1576,11 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f>A22</f>
         <v>45923</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1616,44 +1613,44 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <f>A23</f>
         <v>45923</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>24</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="13">
-        <v>11</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="12">
+        <v>11</v>
+      </c>
+      <c r="F24" s="12">
         <v>0</v>
       </c>
-      <c r="G24" s="13">
-        <v>11</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="12">
+        <v>11</v>
+      </c>
+      <c r="H24" s="12">
         <v>4</v>
       </c>
-      <c r="I24" s="13">
-        <v>11</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I24" s="12">
+        <v>11</v>
+      </c>
+      <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>45924</v>
       </c>
       <c r="B25" s="4">
@@ -1689,7 +1686,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f>A25</f>
         <v>45924</v>
       </c>
@@ -1726,11 +1723,11 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f>A26</f>
         <v>45924</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1771,11 +1768,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <f>A27</f>
         <v>45924</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1808,7 +1805,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>45925</v>
       </c>
       <c r="B29" s="4">
@@ -1844,7 +1841,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f>A29</f>
         <v>45925</v>
       </c>
@@ -1881,48 +1878,48 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f>A30</f>
         <v>45925</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>31</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>10</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>12</v>
       </c>
-      <c r="G31" s="12">
-        <v>7</v>
-      </c>
-      <c r="H31" s="12">
-        <v>11</v>
-      </c>
-      <c r="I31" s="12">
-        <v>7</v>
-      </c>
-      <c r="J31" s="12">
-        <v>11</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="G31" s="11">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
+        <v>11</v>
+      </c>
+      <c r="I31" s="11">
+        <v>7</v>
+      </c>
+      <c r="J31" s="11">
+        <v>11</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <f>A31</f>
         <v>45925</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1955,7 +1952,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>45929</v>
       </c>
       <c r="B33" s="4">
@@ -1991,7 +1988,7 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f>A33</f>
         <v>45929</v>
       </c>
@@ -2028,109 +2025,129 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f>A34</f>
         <v>45929</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>35</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="E35" s="11">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11">
+        <v>11</v>
+      </c>
+      <c r="G35" s="11">
+        <v>11</v>
+      </c>
+      <c r="H35" s="11">
+        <v>6</v>
+      </c>
+      <c r="I35" s="11">
+        <v>8</v>
+      </c>
+      <c r="J35" s="11">
+        <v>11</v>
+      </c>
+      <c r="K35" s="11">
+        <v>10</v>
+      </c>
+      <c r="L35" s="11">
+        <v>12</v>
+      </c>
+      <c r="M35" s="11">
+        <v>6</v>
+      </c>
+      <c r="N35" s="11">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <f>A35</f>
         <v>45929</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="13">
-        <v>11</v>
-      </c>
-      <c r="F36" s="13">
-        <v>7</v>
-      </c>
-      <c r="G36" s="13">
-        <v>11</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="E36" s="12">
+        <v>11</v>
+      </c>
+      <c r="F36" s="12">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12">
+        <v>11</v>
+      </c>
+      <c r="H36" s="12">
         <v>3</v>
       </c>
-      <c r="I36" s="13">
-        <v>11</v>
-      </c>
-      <c r="J36" s="13">
+      <c r="I36" s="12">
+        <v>11</v>
+      </c>
+      <c r="J36" s="12">
         <v>2</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>45930</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>37</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="13">
         <v>10</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>12</v>
       </c>
-      <c r="G37" s="14">
-        <v>6</v>
-      </c>
-      <c r="H37" s="14">
-        <v>11</v>
-      </c>
-      <c r="I37" s="14">
+      <c r="G37" s="13">
+        <v>6</v>
+      </c>
+      <c r="H37" s="13">
+        <v>11</v>
+      </c>
+      <c r="I37" s="13">
         <v>16</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>14</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>3</v>
       </c>
-      <c r="L37" s="14">
-        <v>11</v>
-      </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="L37" s="13">
+        <v>11</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <f>A37</f>
         <v>45930</v>
       </c>
@@ -2167,11 +2184,11 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <f>A38</f>
         <v>45930</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2208,11 +2225,11 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <f>A39</f>
         <v>45930</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2245,51 +2262,51 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>45931</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>41</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="14">
-        <v>11</v>
-      </c>
-      <c r="F41" s="14">
-        <v>8</v>
-      </c>
-      <c r="G41" s="14">
-        <v>8</v>
-      </c>
-      <c r="H41" s="14">
-        <v>11</v>
-      </c>
-      <c r="I41" s="14">
-        <v>7</v>
-      </c>
-      <c r="J41" s="14">
-        <v>11</v>
-      </c>
-      <c r="K41" s="14">
-        <v>11</v>
-      </c>
-      <c r="L41" s="14">
+      <c r="C41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="13">
+        <v>11</v>
+      </c>
+      <c r="F41" s="13">
+        <v>8</v>
+      </c>
+      <c r="G41" s="13">
+        <v>8</v>
+      </c>
+      <c r="H41" s="13">
+        <v>11</v>
+      </c>
+      <c r="I41" s="13">
+        <v>7</v>
+      </c>
+      <c r="J41" s="13">
+        <v>11</v>
+      </c>
+      <c r="K41" s="13">
+        <v>11</v>
+      </c>
+      <c r="L41" s="13">
         <v>5</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="13">
         <v>12</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <f>A41</f>
         <v>45931</v>
       </c>
@@ -2326,11 +2343,11 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <f>A42</f>
         <v>45931</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2363,11 +2380,11 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <f>A43</f>
         <v>45931</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2404,133 +2421,133 @@
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>45932</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>45</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="14">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14">
-        <v>11</v>
-      </c>
-      <c r="G45" s="14">
-        <v>9</v>
-      </c>
-      <c r="H45" s="14">
-        <v>11</v>
-      </c>
-      <c r="I45" s="14">
+      <c r="E45" s="13">
+        <v>8</v>
+      </c>
+      <c r="F45" s="13">
+        <v>11</v>
+      </c>
+      <c r="G45" s="13">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13">
+        <v>11</v>
+      </c>
+      <c r="I45" s="13">
         <v>15</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>13</v>
       </c>
-      <c r="K45" s="14">
-        <v>11</v>
-      </c>
-      <c r="L45" s="14">
-        <v>8</v>
-      </c>
-      <c r="M45" s="14">
+      <c r="K45" s="13">
+        <v>11</v>
+      </c>
+      <c r="L45" s="13">
+        <v>8</v>
+      </c>
+      <c r="M45" s="13">
         <v>12</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <f>A45</f>
         <v>45932</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>46</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="12">
+      <c r="D46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="11">
         <v>13</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>15</v>
       </c>
-      <c r="G46" s="12">
-        <v>7</v>
-      </c>
-      <c r="H46" s="12">
-        <v>11</v>
-      </c>
-      <c r="I46" s="12">
+      <c r="G46" s="11">
+        <v>7</v>
+      </c>
+      <c r="H46" s="11">
+        <v>11</v>
+      </c>
+      <c r="I46" s="11">
         <v>5</v>
       </c>
-      <c r="J46" s="12">
-        <v>11</v>
-      </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="J46" s="11">
+        <v>11</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <f>A46</f>
         <v>45932</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>47</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="12">
-        <v>7</v>
-      </c>
-      <c r="F47" s="12">
-        <v>11</v>
-      </c>
-      <c r="G47" s="12">
-        <v>11</v>
-      </c>
-      <c r="H47" s="12">
-        <v>6</v>
-      </c>
-      <c r="I47" s="12">
-        <v>8</v>
-      </c>
-      <c r="J47" s="12">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12">
+      <c r="E47" s="11">
+        <v>7</v>
+      </c>
+      <c r="F47" s="11">
+        <v>11</v>
+      </c>
+      <c r="G47" s="11">
+        <v>11</v>
+      </c>
+      <c r="H47" s="11">
+        <v>6</v>
+      </c>
+      <c r="I47" s="11">
+        <v>8</v>
+      </c>
+      <c r="J47" s="11">
+        <v>11</v>
+      </c>
+      <c r="K47" s="11">
         <v>4</v>
       </c>
-      <c r="L47" s="12">
-        <v>11</v>
-      </c>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="L47" s="11">
+        <v>11</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <f>A47</f>
         <v>45932</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2563,7 +2580,7 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>45936</v>
       </c>
       <c r="B49" s="1">
@@ -2575,35 +2592,35 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="14">
-        <v>11</v>
-      </c>
-      <c r="F49" s="14">
+      <c r="E49" s="13">
+        <v>11</v>
+      </c>
+      <c r="F49" s="13">
         <v>3</v>
       </c>
-      <c r="G49" s="14">
-        <v>9</v>
-      </c>
-      <c r="H49" s="14">
-        <v>11</v>
-      </c>
-      <c r="I49" s="14">
-        <v>11</v>
-      </c>
-      <c r="J49" s="14">
-        <v>8</v>
-      </c>
-      <c r="K49" s="14">
-        <v>11</v>
-      </c>
-      <c r="L49" s="14">
-        <v>8</v>
-      </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="G49" s="13">
+        <v>9</v>
+      </c>
+      <c r="H49" s="13">
+        <v>11</v>
+      </c>
+      <c r="I49" s="13">
+        <v>11</v>
+      </c>
+      <c r="J49" s="13">
+        <v>8</v>
+      </c>
+      <c r="K49" s="13">
+        <v>11</v>
+      </c>
+      <c r="L49" s="13">
+        <v>8</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <f>A49</f>
         <v>45936</v>
       </c>
@@ -2640,11 +2657,11 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <f>A50</f>
         <v>45936</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2653,31 +2670,31 @@
       <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="12">
-        <v>11</v>
-      </c>
-      <c r="F51" s="12">
+      <c r="E51" s="11">
+        <v>11</v>
+      </c>
+      <c r="F51" s="11">
         <v>3</v>
       </c>
-      <c r="G51" s="12">
-        <v>11</v>
-      </c>
-      <c r="H51" s="12">
-        <v>7</v>
-      </c>
-      <c r="I51" s="12">
-        <v>11</v>
-      </c>
-      <c r="J51" s="12">
-        <v>7</v>
-      </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="G51" s="11">
+        <v>11</v>
+      </c>
+      <c r="H51" s="11">
+        <v>7</v>
+      </c>
+      <c r="I51" s="11">
+        <v>11</v>
+      </c>
+      <c r="J51" s="11">
+        <v>7</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <f>A51</f>
         <v>45936</v>
       </c>
@@ -2690,31 +2707,31 @@
       <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>2</v>
       </c>
-      <c r="F52" s="13">
-        <v>11</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="12">
+        <v>11</v>
+      </c>
+      <c r="G52" s="12">
         <v>4</v>
       </c>
-      <c r="H52" s="13">
-        <v>11</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="H52" s="12">
+        <v>11</v>
+      </c>
+      <c r="I52" s="12">
         <v>4</v>
       </c>
-      <c r="J52" s="13">
-        <v>11</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
+      <c r="J52" s="12">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>45937</v>
       </c>
       <c r="B53" s="4">
@@ -2750,11 +2767,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <f>A53</f>
         <v>45937</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2763,39 +2780,39 @@
       <c r="D54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="12">
-        <v>11</v>
-      </c>
-      <c r="F54" s="12">
-        <v>6</v>
-      </c>
-      <c r="G54" s="12">
-        <v>11</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="E54" s="11">
+        <v>11</v>
+      </c>
+      <c r="F54" s="11">
+        <v>6</v>
+      </c>
+      <c r="G54" s="11">
+        <v>11</v>
+      </c>
+      <c r="H54" s="11">
         <v>5</v>
       </c>
-      <c r="I54" s="12">
-        <v>11</v>
-      </c>
-      <c r="J54" s="12">
+      <c r="I54" s="11">
+        <v>11</v>
+      </c>
+      <c r="J54" s="11">
         <v>13</v>
       </c>
-      <c r="K54" s="12">
-        <v>11</v>
-      </c>
-      <c r="L54" s="12">
+      <c r="K54" s="11">
+        <v>11</v>
+      </c>
+      <c r="L54" s="11">
         <v>5</v>
       </c>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <f>A54</f>
         <v>45937</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2804,35 +2821,35 @@
       <c r="D55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>5</v>
       </c>
-      <c r="F55" s="12">
-        <v>11</v>
-      </c>
-      <c r="G55" s="12">
-        <v>6</v>
-      </c>
-      <c r="H55" s="12">
-        <v>11</v>
-      </c>
-      <c r="I55" s="12">
+      <c r="F55" s="11">
+        <v>11</v>
+      </c>
+      <c r="G55" s="11">
+        <v>6</v>
+      </c>
+      <c r="H55" s="11">
+        <v>11</v>
+      </c>
+      <c r="I55" s="11">
         <v>10</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>12</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <f>A55</f>
         <v>45937</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2865,7 +2882,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>45938</v>
       </c>
       <c r="B57" s="4">
@@ -2909,11 +2926,11 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <f>A57</f>
         <v>45938</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2922,80 +2939,80 @@
       <c r="D58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="12">
-        <v>11</v>
-      </c>
-      <c r="F58" s="12">
-        <v>9</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="E58" s="11">
+        <v>11</v>
+      </c>
+      <c r="F58" s="11">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11">
         <v>10</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>12</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>12</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>10</v>
       </c>
-      <c r="K58" s="12">
-        <v>11</v>
-      </c>
-      <c r="L58" s="12">
-        <v>6</v>
-      </c>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
+      <c r="K58" s="11">
+        <v>11</v>
+      </c>
+      <c r="L58" s="11">
+        <v>6</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <f>A58</f>
         <v>45938</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>59</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="12">
-        <v>11</v>
-      </c>
-      <c r="F59" s="12">
-        <v>9</v>
-      </c>
-      <c r="G59" s="12">
-        <v>7</v>
-      </c>
-      <c r="H59" s="12">
-        <v>11</v>
-      </c>
-      <c r="I59" s="12">
+      <c r="E59" s="11">
+        <v>11</v>
+      </c>
+      <c r="F59" s="11">
+        <v>9</v>
+      </c>
+      <c r="G59" s="11">
+        <v>7</v>
+      </c>
+      <c r="H59" s="11">
+        <v>11</v>
+      </c>
+      <c r="I59" s="11">
         <v>2</v>
       </c>
-      <c r="J59" s="12">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12">
+      <c r="J59" s="11">
+        <v>11</v>
+      </c>
+      <c r="K59" s="11">
         <v>5</v>
       </c>
-      <c r="L59" s="12">
-        <v>11</v>
-      </c>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
+      <c r="L59" s="11">
+        <v>11</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <f>A59</f>
         <v>45938</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3028,7 +3045,7 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>45943</v>
       </c>
       <c r="B61" s="4">
@@ -3040,35 +3057,35 @@
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="14">
-        <v>11</v>
-      </c>
-      <c r="F61" s="14">
-        <v>9</v>
-      </c>
-      <c r="G61" s="14">
-        <v>11</v>
-      </c>
-      <c r="H61" s="14">
-        <v>7</v>
-      </c>
-      <c r="I61" s="14">
-        <v>8</v>
-      </c>
-      <c r="J61" s="14">
-        <v>11</v>
-      </c>
-      <c r="K61" s="14">
-        <v>11</v>
-      </c>
-      <c r="L61" s="14">
-        <v>7</v>
-      </c>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="E61" s="13">
+        <v>11</v>
+      </c>
+      <c r="F61" s="13">
+        <v>9</v>
+      </c>
+      <c r="G61" s="13">
+        <v>11</v>
+      </c>
+      <c r="H61" s="13">
+        <v>7</v>
+      </c>
+      <c r="I61" s="13">
+        <v>8</v>
+      </c>
+      <c r="J61" s="13">
+        <v>11</v>
+      </c>
+      <c r="K61" s="13">
+        <v>11</v>
+      </c>
+      <c r="L61" s="13">
+        <v>7</v>
+      </c>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <f>A61</f>
         <v>45943</v>
       </c>
@@ -3105,11 +3122,11 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <f>A62</f>
         <v>45943</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -3130,10 +3147,10 @@
       <c r="H63" s="3">
         <v>6</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <v>1</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <v>11</v>
       </c>
       <c r="K63" s="3">
@@ -3146,11 +3163,11 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <f>A63</f>
         <v>45943</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3187,7 +3204,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>45944</v>
       </c>
       <c r="B65" s="4">
@@ -3199,39 +3216,39 @@
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="14">
-        <v>11</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="E65" s="13">
+        <v>11</v>
+      </c>
+      <c r="F65" s="13">
         <v>4</v>
       </c>
-      <c r="G65" s="14">
-        <v>6</v>
-      </c>
-      <c r="H65" s="14">
-        <v>11</v>
-      </c>
-      <c r="I65" s="14">
-        <v>8</v>
-      </c>
-      <c r="J65" s="14">
-        <v>11</v>
-      </c>
-      <c r="K65" s="14">
-        <v>11</v>
-      </c>
-      <c r="L65" s="14">
+      <c r="G65" s="13">
+        <v>6</v>
+      </c>
+      <c r="H65" s="13">
+        <v>11</v>
+      </c>
+      <c r="I65" s="13">
+        <v>8</v>
+      </c>
+      <c r="J65" s="13">
+        <v>11</v>
+      </c>
+      <c r="K65" s="13">
+        <v>11</v>
+      </c>
+      <c r="L65" s="13">
         <v>4</v>
       </c>
-      <c r="M65" s="14">
-        <v>9</v>
-      </c>
-      <c r="N65" s="14">
+      <c r="M65" s="13">
+        <v>9</v>
+      </c>
+      <c r="N65" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <f>A65</f>
         <v>45944</v>
       </c>
@@ -3244,39 +3261,39 @@
       <c r="D66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="12">
-        <v>11</v>
-      </c>
-      <c r="F66" s="12">
-        <v>9</v>
-      </c>
-      <c r="G66" s="12">
-        <v>6</v>
-      </c>
-      <c r="H66" s="12">
-        <v>11</v>
-      </c>
-      <c r="I66" s="12">
+      <c r="E66" s="11">
+        <v>11</v>
+      </c>
+      <c r="F66" s="11">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11">
+        <v>6</v>
+      </c>
+      <c r="H66" s="11">
+        <v>11</v>
+      </c>
+      <c r="I66" s="11">
         <v>4</v>
       </c>
-      <c r="J66" s="12">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12">
-        <v>7</v>
-      </c>
-      <c r="L66" s="12">
-        <v>11</v>
-      </c>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
+      <c r="J66" s="11">
+        <v>11</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7</v>
+      </c>
+      <c r="L66" s="11">
+        <v>11</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <f>A66</f>
         <v>45944</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>67</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3285,39 +3302,39 @@
       <c r="D67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="15">
-        <v>7</v>
-      </c>
-      <c r="F67" s="15">
-        <v>11</v>
-      </c>
-      <c r="G67" s="15">
-        <v>11</v>
-      </c>
-      <c r="H67" s="15">
-        <v>6</v>
-      </c>
-      <c r="I67" s="15">
+      <c r="E67" s="14">
+        <v>7</v>
+      </c>
+      <c r="F67" s="14">
+        <v>11</v>
+      </c>
+      <c r="G67" s="14">
+        <v>11</v>
+      </c>
+      <c r="H67" s="14">
+        <v>6</v>
+      </c>
+      <c r="I67" s="14">
         <v>5</v>
       </c>
-      <c r="J67" s="15">
-        <v>11</v>
-      </c>
-      <c r="K67" s="15">
-        <v>7</v>
-      </c>
-      <c r="L67" s="15">
-        <v>11</v>
-      </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
+      <c r="J67" s="14">
+        <v>11</v>
+      </c>
+      <c r="K67" s="14">
+        <v>7</v>
+      </c>
+      <c r="L67" s="14">
+        <v>11</v>
+      </c>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <f>A67</f>
         <v>45944</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>68</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3350,7 +3367,7 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>45945</v>
       </c>
       <c r="B69" s="4">
@@ -3390,7 +3407,7 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <f>A69</f>
         <v>45945</v>
       </c>
@@ -3403,35 +3420,35 @@
       <c r="D70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="12">
-        <v>11</v>
-      </c>
-      <c r="F70" s="12">
-        <v>8</v>
-      </c>
-      <c r="G70" s="12">
-        <v>11</v>
-      </c>
-      <c r="H70" s="12">
-        <v>6</v>
-      </c>
-      <c r="I70" s="12">
+      <c r="E70" s="11">
+        <v>11</v>
+      </c>
+      <c r="F70" s="11">
+        <v>8</v>
+      </c>
+      <c r="G70" s="11">
+        <v>11</v>
+      </c>
+      <c r="H70" s="11">
+        <v>6</v>
+      </c>
+      <c r="I70" s="11">
         <v>13</v>
       </c>
-      <c r="J70" s="12">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
+      <c r="J70" s="11">
+        <v>11</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <f>A70</f>
         <v>45945</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>71</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -3472,11 +3489,11 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <f>A71</f>
         <v>45945</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>72</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3509,7 +3526,7 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>45946</v>
       </c>
       <c r="B73" s="4">
@@ -3549,7 +3566,7 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
+      <c r="A74" s="9">
         <f>A73</f>
         <v>45946</v>
       </c>
@@ -3590,11 +3607,11 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <f>A74</f>
         <v>45946</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>75</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3635,11 +3652,11 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <f>A75</f>
         <v>45946</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3648,31 +3665,31 @@
       <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="13">
-        <v>11</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E76" s="12">
+        <v>11</v>
+      </c>
+      <c r="F76" s="12">
         <v>3</v>
       </c>
-      <c r="G76" s="13">
-        <v>11</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="G76" s="12">
+        <v>11</v>
+      </c>
+      <c r="H76" s="12">
         <v>4</v>
       </c>
-      <c r="I76" s="13">
-        <v>11</v>
-      </c>
-      <c r="J76" s="13">
+      <c r="I76" s="12">
+        <v>11</v>
+      </c>
+      <c r="J76" s="12">
         <v>2</v>
       </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>45950</v>
       </c>
       <c r="B77" s="4">
@@ -3712,7 +3729,7 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <f>A77</f>
         <v>45950</v>
       </c>
@@ -3757,11 +3774,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <f>A78</f>
         <v>45950</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>79</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -3770,39 +3787,39 @@
       <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="12">
-        <v>11</v>
-      </c>
-      <c r="F79" s="12">
-        <v>9</v>
-      </c>
-      <c r="G79" s="12">
-        <v>6</v>
-      </c>
-      <c r="H79" s="12">
-        <v>11</v>
-      </c>
-      <c r="I79" s="12">
-        <v>11</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="E79" s="11">
+        <v>11</v>
+      </c>
+      <c r="F79" s="11">
+        <v>9</v>
+      </c>
+      <c r="G79" s="11">
+        <v>6</v>
+      </c>
+      <c r="H79" s="11">
+        <v>11</v>
+      </c>
+      <c r="I79" s="11">
+        <v>11</v>
+      </c>
+      <c r="J79" s="11">
         <v>2</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="11">
         <v>12</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="11">
         <v>10</v>
       </c>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <f>A79</f>
         <v>45950</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3835,7 +3852,7 @@
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>45951</v>
       </c>
       <c r="B81" s="4">
@@ -3879,7 +3896,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <f>A81</f>
         <v>45951</v>
       </c>
@@ -3892,35 +3909,35 @@
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="12">
-        <v>9</v>
-      </c>
-      <c r="F82" s="12">
-        <v>11</v>
-      </c>
-      <c r="G82" s="12">
-        <v>8</v>
-      </c>
-      <c r="H82" s="12">
-        <v>11</v>
-      </c>
-      <c r="I82" s="12">
+      <c r="E82" s="11">
+        <v>9</v>
+      </c>
+      <c r="F82" s="11">
+        <v>11</v>
+      </c>
+      <c r="G82" s="11">
+        <v>8</v>
+      </c>
+      <c r="H82" s="11">
+        <v>11</v>
+      </c>
+      <c r="I82" s="11">
         <v>4</v>
       </c>
-      <c r="J82" s="12">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
+      <c r="J82" s="11">
+        <v>11</v>
+      </c>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <f>A82</f>
         <v>45951</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>83</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3953,11 +3970,11 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <f>A83</f>
         <v>45951</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3990,7 +4007,7 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>45952</v>
       </c>
       <c r="B85" s="4">
@@ -4034,7 +4051,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <f>A85</f>
         <v>45952</v>
       </c>
@@ -4075,11 +4092,11 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <f>A86</f>
         <v>45952</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>87</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -4088,43 +4105,43 @@
       <c r="D87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="12">
-        <v>11</v>
-      </c>
-      <c r="F87" s="12">
-        <v>6</v>
-      </c>
-      <c r="G87" s="12">
-        <v>9</v>
-      </c>
-      <c r="H87" s="12">
-        <v>11</v>
-      </c>
-      <c r="I87" s="12">
-        <v>8</v>
-      </c>
-      <c r="J87" s="12">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12">
-        <v>11</v>
-      </c>
-      <c r="L87" s="12">
-        <v>7</v>
-      </c>
-      <c r="M87" s="12">
-        <v>11</v>
-      </c>
-      <c r="N87" s="12">
+      <c r="E87" s="11">
+        <v>11</v>
+      </c>
+      <c r="F87" s="11">
+        <v>6</v>
+      </c>
+      <c r="G87" s="11">
+        <v>9</v>
+      </c>
+      <c r="H87" s="11">
+        <v>11</v>
+      </c>
+      <c r="I87" s="11">
+        <v>8</v>
+      </c>
+      <c r="J87" s="11">
+        <v>11</v>
+      </c>
+      <c r="K87" s="11">
+        <v>11</v>
+      </c>
+      <c r="L87" s="11">
+        <v>7</v>
+      </c>
+      <c r="M87" s="11">
+        <v>11</v>
+      </c>
+      <c r="N87" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <f>A87</f>
         <v>45952</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4157,7 +4174,7 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>45953</v>
       </c>
       <c r="B89" s="4">
@@ -4193,7 +4210,7 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <f>A89</f>
         <v>45953</v>
       </c>
@@ -4234,11 +4251,11 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <f>A90</f>
         <v>45953</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>91</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4247,39 +4264,39 @@
       <c r="D91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="12">
-        <v>11</v>
-      </c>
-      <c r="F91" s="12">
-        <v>9</v>
-      </c>
-      <c r="G91" s="12">
-        <v>11</v>
-      </c>
-      <c r="H91" s="12">
-        <v>8</v>
-      </c>
-      <c r="I91" s="12">
-        <v>8</v>
-      </c>
-      <c r="J91" s="12">
-        <v>11</v>
-      </c>
-      <c r="K91" s="12">
-        <v>11</v>
-      </c>
-      <c r="L91" s="12">
-        <v>7</v>
-      </c>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
+      <c r="E91" s="11">
+        <v>11</v>
+      </c>
+      <c r="F91" s="11">
+        <v>9</v>
+      </c>
+      <c r="G91" s="11">
+        <v>11</v>
+      </c>
+      <c r="H91" s="11">
+        <v>8</v>
+      </c>
+      <c r="I91" s="11">
+        <v>8</v>
+      </c>
+      <c r="J91" s="11">
+        <v>11</v>
+      </c>
+      <c r="K91" s="11">
+        <v>11</v>
+      </c>
+      <c r="L91" s="11">
+        <v>7</v>
+      </c>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <f>A91</f>
         <v>45953</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -4312,7 +4329,7 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>45957</v>
       </c>
       <c r="B93" s="4">
@@ -4356,7 +4373,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <f>A93</f>
         <v>45957</v>
       </c>
@@ -4369,23 +4386,39 @@
       <c r="D94" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
+      <c r="E94" s="11">
+        <v>8</v>
+      </c>
+      <c r="F94" s="11">
+        <v>11</v>
+      </c>
+      <c r="G94" s="11">
+        <v>11</v>
+      </c>
+      <c r="H94" s="11">
+        <v>9</v>
+      </c>
+      <c r="I94" s="11">
+        <v>11</v>
+      </c>
+      <c r="J94" s="11">
+        <v>3</v>
+      </c>
+      <c r="K94" s="11">
+        <v>11</v>
+      </c>
+      <c r="L94" s="11">
+        <v>8</v>
+      </c>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <f>A94</f>
         <v>45957</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>95</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -4394,39 +4427,39 @@
       <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>12</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="11">
         <v>14</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>10</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>12</v>
       </c>
-      <c r="I95" s="12">
-        <v>11</v>
-      </c>
-      <c r="J95" s="12">
-        <v>8</v>
-      </c>
-      <c r="K95" s="12">
-        <v>6</v>
-      </c>
-      <c r="L95" s="12">
-        <v>11</v>
-      </c>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
+      <c r="I95" s="11">
+        <v>11</v>
+      </c>
+      <c r="J95" s="11">
+        <v>8</v>
+      </c>
+      <c r="K95" s="11">
+        <v>6</v>
+      </c>
+      <c r="L95" s="11">
+        <v>11</v>
+      </c>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <f>A95</f>
         <v>45957</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -4463,7 +4496,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+      <c r="A97" s="8">
         <v>45958</v>
       </c>
       <c r="B97" s="4">
@@ -4507,7 +4540,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
+      <c r="A98" s="9">
         <f>A97</f>
         <v>45958</v>
       </c>
@@ -4552,11 +4585,11 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+      <c r="A99" s="9">
         <f>A98</f>
         <v>45958</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>99</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -4597,11 +4630,11 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <f>A99</f>
         <v>45958</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4638,7 +4671,7 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>45959</v>
       </c>
       <c r="B101" s="4">
@@ -4674,7 +4707,7 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <f>A101</f>
         <v>45959</v>
       </c>
@@ -4719,11 +4752,11 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+      <c r="A103" s="9">
         <f>A102</f>
         <v>45959</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -4760,11 +4793,11 @@
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="11">
+      <c r="A104" s="10">
         <f>A103</f>
         <v>45959</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4773,31 +4806,31 @@
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="13">
-        <v>11</v>
-      </c>
-      <c r="F104" s="13">
-        <v>8</v>
-      </c>
-      <c r="G104" s="13">
-        <v>11</v>
-      </c>
-      <c r="H104" s="13">
+      <c r="E104" s="12">
+        <v>11</v>
+      </c>
+      <c r="F104" s="12">
+        <v>8</v>
+      </c>
+      <c r="G104" s="12">
+        <v>11</v>
+      </c>
+      <c r="H104" s="12">
         <v>5</v>
       </c>
-      <c r="I104" s="13">
-        <v>11</v>
-      </c>
-      <c r="J104" s="13">
-        <v>6</v>
-      </c>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
+      <c r="I104" s="12">
+        <v>11</v>
+      </c>
+      <c r="J104" s="12">
+        <v>6</v>
+      </c>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
+      <c r="A105" s="8">
         <v>45960</v>
       </c>
       <c r="B105" s="4">
@@ -4809,35 +4842,35 @@
       <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="14">
-        <v>11</v>
-      </c>
-      <c r="F105" s="14">
+      <c r="E105" s="13">
+        <v>11</v>
+      </c>
+      <c r="F105" s="13">
         <v>13</v>
       </c>
-      <c r="G105" s="14">
-        <v>11</v>
-      </c>
-      <c r="H105" s="14">
-        <v>7</v>
-      </c>
-      <c r="I105" s="14">
-        <v>8</v>
-      </c>
-      <c r="J105" s="14">
-        <v>11</v>
-      </c>
-      <c r="K105" s="14">
-        <v>8</v>
-      </c>
-      <c r="L105" s="14">
-        <v>11</v>
-      </c>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
+      <c r="G105" s="13">
+        <v>11</v>
+      </c>
+      <c r="H105" s="13">
+        <v>7</v>
+      </c>
+      <c r="I105" s="13">
+        <v>8</v>
+      </c>
+      <c r="J105" s="13">
+        <v>11</v>
+      </c>
+      <c r="K105" s="13">
+        <v>8</v>
+      </c>
+      <c r="L105" s="13">
+        <v>11</v>
+      </c>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
+      <c r="A106" s="9">
         <f>A105</f>
         <v>45960</v>
       </c>
@@ -4850,43 +4883,43 @@
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="12">
-        <v>7</v>
-      </c>
-      <c r="F106" s="12">
-        <v>11</v>
-      </c>
-      <c r="G106" s="12">
-        <v>7</v>
-      </c>
-      <c r="H106" s="12">
-        <v>11</v>
-      </c>
-      <c r="I106" s="12">
-        <v>11</v>
-      </c>
-      <c r="J106" s="12">
-        <v>8</v>
-      </c>
-      <c r="K106" s="12">
-        <v>11</v>
-      </c>
-      <c r="L106" s="12">
-        <v>9</v>
-      </c>
-      <c r="M106" s="12">
-        <v>11</v>
-      </c>
-      <c r="N106" s="12">
+      <c r="E106" s="11">
+        <v>7</v>
+      </c>
+      <c r="F106" s="11">
+        <v>11</v>
+      </c>
+      <c r="G106" s="11">
+        <v>7</v>
+      </c>
+      <c r="H106" s="11">
+        <v>11</v>
+      </c>
+      <c r="I106" s="11">
+        <v>11</v>
+      </c>
+      <c r="J106" s="11">
+        <v>8</v>
+      </c>
+      <c r="K106" s="11">
+        <v>11</v>
+      </c>
+      <c r="L106" s="11">
+        <v>9</v>
+      </c>
+      <c r="M106" s="11">
+        <v>11</v>
+      </c>
+      <c r="N106" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="10">
+      <c r="A107" s="9">
         <f>A106</f>
         <v>45960</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <v>107</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -4895,43 +4928,43 @@
       <c r="D107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="12">
-        <v>8</v>
-      </c>
-      <c r="F107" s="12">
-        <v>11</v>
-      </c>
-      <c r="G107" s="12">
-        <v>11</v>
-      </c>
-      <c r="H107" s="12">
-        <v>8</v>
-      </c>
-      <c r="I107" s="12">
+      <c r="E107" s="11">
+        <v>8</v>
+      </c>
+      <c r="F107" s="11">
+        <v>11</v>
+      </c>
+      <c r="G107" s="11">
+        <v>11</v>
+      </c>
+      <c r="H107" s="11">
+        <v>8</v>
+      </c>
+      <c r="I107" s="11">
         <v>12</v>
       </c>
-      <c r="J107" s="12">
+      <c r="J107" s="11">
         <v>10</v>
       </c>
-      <c r="K107" s="12">
+      <c r="K107" s="11">
         <v>3</v>
       </c>
-      <c r="L107" s="12">
-        <v>11</v>
-      </c>
-      <c r="M107" s="12">
+      <c r="L107" s="11">
+        <v>11</v>
+      </c>
+      <c r="M107" s="11">
         <v>12</v>
       </c>
-      <c r="N107" s="12">
+      <c r="N107" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="11">
+      <c r="A108" s="10">
         <f>A107</f>
         <v>45960</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4968,7 +5001,7 @@
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
+      <c r="A109" s="8">
         <v>45964</v>
       </c>
       <c r="B109" s="4">
@@ -4980,31 +5013,31 @@
       <c r="D109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="14">
-        <v>11</v>
-      </c>
-      <c r="F109" s="14">
-        <v>6</v>
-      </c>
-      <c r="G109" s="14">
-        <v>11</v>
-      </c>
-      <c r="H109" s="14">
-        <v>6</v>
-      </c>
-      <c r="I109" s="14">
-        <v>11</v>
-      </c>
-      <c r="J109" s="14">
-        <v>6</v>
-      </c>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
+      <c r="E109" s="13">
+        <v>11</v>
+      </c>
+      <c r="F109" s="13">
+        <v>6</v>
+      </c>
+      <c r="G109" s="13">
+        <v>11</v>
+      </c>
+      <c r="H109" s="13">
+        <v>6</v>
+      </c>
+      <c r="I109" s="13">
+        <v>11</v>
+      </c>
+      <c r="J109" s="13">
+        <v>6</v>
+      </c>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
+      <c r="A110" s="9">
         <f>A109</f>
         <v>45964</v>
       </c>
@@ -5017,39 +5050,39 @@
       <c r="D110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="12">
-        <v>7</v>
-      </c>
-      <c r="F110" s="12">
-        <v>11</v>
-      </c>
-      <c r="G110" s="12">
-        <v>11</v>
-      </c>
-      <c r="H110" s="12">
-        <v>7</v>
-      </c>
-      <c r="I110" s="12">
-        <v>9</v>
-      </c>
-      <c r="J110" s="12">
-        <v>11</v>
-      </c>
-      <c r="K110" s="12">
-        <v>11</v>
-      </c>
-      <c r="L110" s="12">
+      <c r="E110" s="11">
+        <v>7</v>
+      </c>
+      <c r="F110" s="11">
+        <v>11</v>
+      </c>
+      <c r="G110" s="11">
+        <v>11</v>
+      </c>
+      <c r="H110" s="11">
+        <v>7</v>
+      </c>
+      <c r="I110" s="11">
+        <v>9</v>
+      </c>
+      <c r="J110" s="11">
+        <v>11</v>
+      </c>
+      <c r="K110" s="11">
+        <v>11</v>
+      </c>
+      <c r="L110" s="11">
         <v>13</v>
       </c>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="10">
+      <c r="A111" s="9">
         <f>A110</f>
         <v>45964</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <v>111</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -5090,11 +5123,11 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="11">
+      <c r="A112" s="10">
         <f>A111</f>
         <v>45964</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -5127,7 +5160,7 @@
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="9">
+      <c r="A113" s="8">
         <v>45965</v>
       </c>
       <c r="B113" s="4">
@@ -5163,7 +5196,7 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
+      <c r="A114" s="9">
         <f>A113</f>
         <v>45965</v>
       </c>
@@ -5208,11 +5241,11 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="10">
+      <c r="A115" s="9">
         <f>A114</f>
         <v>45965</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="7">
         <v>115</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -5221,43 +5254,43 @@
       <c r="D115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="12">
-        <v>11</v>
-      </c>
-      <c r="F115" s="12">
+      <c r="E115" s="11">
+        <v>11</v>
+      </c>
+      <c r="F115" s="11">
         <v>2</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>3</v>
       </c>
-      <c r="H115" s="12">
-        <v>11</v>
-      </c>
-      <c r="I115" s="12">
-        <v>11</v>
-      </c>
-      <c r="J115" s="12">
+      <c r="H115" s="11">
+        <v>11</v>
+      </c>
+      <c r="I115" s="11">
+        <v>11</v>
+      </c>
+      <c r="J115" s="11">
         <v>3</v>
       </c>
-      <c r="K115" s="12">
-        <v>9</v>
-      </c>
-      <c r="L115" s="12">
-        <v>11</v>
-      </c>
-      <c r="M115" s="12">
-        <v>9</v>
-      </c>
-      <c r="N115" s="12">
+      <c r="K115" s="11">
+        <v>9</v>
+      </c>
+      <c r="L115" s="11">
+        <v>11</v>
+      </c>
+      <c r="M115" s="11">
+        <v>9</v>
+      </c>
+      <c r="N115" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="11">
+      <c r="A116" s="10">
         <f>A115</f>
         <v>45965</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -5266,31 +5299,31 @@
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="13">
-        <v>7</v>
-      </c>
-      <c r="F116" s="13">
-        <v>11</v>
-      </c>
-      <c r="G116" s="13">
-        <v>8</v>
-      </c>
-      <c r="H116" s="13">
-        <v>11</v>
-      </c>
-      <c r="I116" s="13">
-        <v>6</v>
-      </c>
-      <c r="J116" s="13">
-        <v>11</v>
-      </c>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
+      <c r="E116" s="12">
+        <v>7</v>
+      </c>
+      <c r="F116" s="12">
+        <v>11</v>
+      </c>
+      <c r="G116" s="12">
+        <v>8</v>
+      </c>
+      <c r="H116" s="12">
+        <v>11</v>
+      </c>
+      <c r="I116" s="12">
+        <v>6</v>
+      </c>
+      <c r="J116" s="12">
+        <v>11</v>
+      </c>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
+      <c r="A117" s="8">
         <v>45966</v>
       </c>
       <c r="B117" s="4">
@@ -5334,7 +5367,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
+      <c r="A118" s="9">
         <f>A117</f>
         <v>45966</v>
       </c>
@@ -5371,11 +5404,11 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="10">
+      <c r="A119" s="9">
         <f>A118</f>
         <v>45966</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="7">
         <v>119</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -5412,11 +5445,11 @@
       <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11">
+      <c r="A120" s="10">
         <f>A119</f>
         <v>45966</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -5425,39 +5458,39 @@
       <c r="D120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="13">
-        <v>11</v>
-      </c>
-      <c r="F120" s="13">
-        <v>7</v>
-      </c>
-      <c r="G120" s="13">
-        <v>11</v>
-      </c>
-      <c r="H120" s="13">
-        <v>9</v>
-      </c>
-      <c r="I120" s="13">
-        <v>9</v>
-      </c>
-      <c r="J120" s="13">
-        <v>11</v>
-      </c>
-      <c r="K120" s="13">
+      <c r="E120" s="12">
+        <v>11</v>
+      </c>
+      <c r="F120" s="12">
+        <v>7</v>
+      </c>
+      <c r="G120" s="12">
+        <v>11</v>
+      </c>
+      <c r="H120" s="12">
+        <v>9</v>
+      </c>
+      <c r="I120" s="12">
+        <v>9</v>
+      </c>
+      <c r="J120" s="12">
+        <v>11</v>
+      </c>
+      <c r="K120" s="12">
         <v>10</v>
       </c>
-      <c r="L120" s="13">
+      <c r="L120" s="12">
         <v>12</v>
       </c>
-      <c r="M120" s="13">
-        <v>11</v>
-      </c>
-      <c r="N120" s="13">
+      <c r="M120" s="12">
+        <v>11</v>
+      </c>
+      <c r="N120" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="9">
+      <c r="A121" s="8">
         <v>45967</v>
       </c>
       <c r="B121" s="4">
@@ -5497,7 +5530,7 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="10">
+      <c r="A122" s="9">
         <f>A121</f>
         <v>45967</v>
       </c>
@@ -5534,11 +5567,11 @@
       <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="10">
+      <c r="A123" s="9">
         <f>A122</f>
         <v>45967</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="7">
         <v>123</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -5559,11 +5592,11 @@
       <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="11">
+      <c r="A124" s="10">
         <f>A123</f>
         <v>45967</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -5596,7 +5629,7 @@
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="9">
+      <c r="A125" s="8">
         <v>45971</v>
       </c>
       <c r="B125" s="4">
@@ -5608,19 +5641,39 @@
       <c r="D125" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
+      <c r="E125" s="1">
+        <v>11</v>
+      </c>
+      <c r="F125" s="1">
+        <v>8</v>
+      </c>
+      <c r="G125" s="1">
+        <v>11</v>
+      </c>
+      <c r="H125" s="1">
+        <v>13</v>
+      </c>
+      <c r="I125" s="1">
+        <v>11</v>
+      </c>
+      <c r="J125" s="1">
+        <v>9</v>
+      </c>
+      <c r="K125" s="1">
+        <v>5</v>
+      </c>
+      <c r="L125" s="1">
+        <v>11</v>
+      </c>
+      <c r="M125" s="1">
+        <v>6</v>
+      </c>
+      <c r="N125" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
+      <c r="A126" s="9">
         <f>A125</f>
         <v>45971</v>
       </c>
@@ -5645,11 +5698,11 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="10">
+      <c r="A127" s="9">
         <f>A126</f>
         <v>45971</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="7">
         <v>127</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -5658,23 +5711,39 @@
       <c r="D127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
+      <c r="E127" s="3">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3">
+        <v>11</v>
+      </c>
+      <c r="G127" s="3">
+        <v>11</v>
+      </c>
+      <c r="H127" s="3">
+        <v>9</v>
+      </c>
+      <c r="I127" s="3">
+        <v>7</v>
+      </c>
+      <c r="J127" s="3">
+        <v>11</v>
+      </c>
+      <c r="K127" s="3">
+        <v>11</v>
+      </c>
+      <c r="L127" s="3">
+        <v>9</v>
+      </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="11">
+      <c r="A128" s="10">
         <f>A127</f>
         <v>45971</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>128</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -5683,19 +5752,35 @@
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="E128" s="2">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2">
+        <v>8</v>
+      </c>
+      <c r="G128" s="2">
+        <v>11</v>
+      </c>
+      <c r="H128" s="2">
+        <v>13</v>
+      </c>
+      <c r="I128" s="2">
+        <v>11</v>
+      </c>
+      <c r="J128" s="2">
+        <v>7</v>
+      </c>
+      <c r="K128" s="2">
+        <v>12</v>
+      </c>
+      <c r="L128" s="2">
+        <v>10</v>
+      </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="9">
+      <c r="A129" s="8">
         <v>45972</v>
       </c>
       <c r="B129" s="4">
@@ -5719,7 +5804,7 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
+      <c r="A130" s="9">
         <f>A129</f>
         <v>45972</v>
       </c>
@@ -5744,11 +5829,11 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="10">
+      <c r="A131" s="9">
         <f>A130</f>
         <v>45972</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="7">
         <v>131</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -5769,11 +5854,11 @@
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="11">
+      <c r="A132" s="10">
         <f>A131</f>
         <v>45972</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>132</v>
       </c>
       <c r="C132" s="2" t="s">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F89D34-3DCC-488A-B879-1089FFFCD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98ABAF3-CB64-4286-B219-ABB87BA149D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Enrique Lázaro</t>
   </si>
   <si>
-    <t>Álvaro Monleon</t>
-  </si>
-  <si>
     <t>Miguel Mau</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Alejandro Navarro</t>
+  </si>
+  <si>
+    <t>Álvaro Monleón</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -691,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="Q123" sqref="Q123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1005,10 +1015,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
@@ -1156,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="12">
         <v>11</v>
@@ -1303,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -1462,10 +1472,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
@@ -1621,10 +1631,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="12">
         <v>11</v>
@@ -1731,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -1776,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
@@ -1923,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>27</v>
@@ -2078,10 +2088,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="12">
         <v>11</v>
@@ -2192,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -2233,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
@@ -2388,7 +2398,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>27</v>
@@ -2551,10 +2561,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
@@ -2665,7 +2675,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -2702,10 +2712,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="12">
         <v>2</v>
@@ -2853,7 +2863,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -3016,7 +3026,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -3171,10 +3181,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
@@ -3338,7 +3348,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
@@ -3497,7 +3507,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>27</v>
@@ -3615,7 +3625,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>20</v>
@@ -3660,10 +3670,10 @@
         <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="12">
         <v>11</v>
@@ -3782,7 +3792,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>13</v>
@@ -3823,10 +3833,10 @@
         <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -3978,7 +3988,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>26</v>
@@ -5580,16 +5590,36 @@
       <c r="D123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
+      <c r="E123" s="3">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3">
+        <v>11</v>
+      </c>
+      <c r="G123" s="3">
+        <v>11</v>
+      </c>
+      <c r="H123" s="3">
+        <v>8</v>
+      </c>
+      <c r="I123" s="3">
+        <v>11</v>
+      </c>
+      <c r="J123" s="3">
+        <v>13</v>
+      </c>
+      <c r="K123" s="3">
+        <v>11</v>
+      </c>
+      <c r="L123" s="3">
+        <v>9</v>
+      </c>
+      <c r="M123" s="3">
+        <v>9</v>
+      </c>
+      <c r="N123" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
@@ -5686,14 +5716,30 @@
       <c r="D126" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
+      <c r="E126" s="3">
+        <v>12</v>
+      </c>
+      <c r="F126" s="3">
+        <v>14</v>
+      </c>
+      <c r="G126" s="3">
+        <v>10</v>
+      </c>
+      <c r="H126" s="3">
+        <v>12</v>
+      </c>
+      <c r="I126" s="3">
+        <v>11</v>
+      </c>
+      <c r="J126" s="3">
+        <v>7</v>
+      </c>
+      <c r="K126" s="3">
+        <v>9</v>
+      </c>
+      <c r="L126" s="3">
+        <v>11</v>
+      </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
     </row>
@@ -5792,16 +5838,36 @@
       <c r="D129" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
+      <c r="E129" s="1">
+        <v>11</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>11</v>
+      </c>
+      <c r="I129" s="1">
+        <v>11</v>
+      </c>
+      <c r="J129" s="1">
+        <v>8</v>
+      </c>
+      <c r="K129" s="1">
+        <v>7</v>
+      </c>
+      <c r="L129" s="1">
+        <v>11</v>
+      </c>
+      <c r="M129" s="1">
+        <v>5</v>
+      </c>
+      <c r="N129" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
@@ -5817,16 +5883,36 @@
       <c r="D130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
+      <c r="E130" s="3">
+        <v>12</v>
+      </c>
+      <c r="F130" s="3">
+        <v>14</v>
+      </c>
+      <c r="G130" s="3">
+        <v>11</v>
+      </c>
+      <c r="H130" s="3">
+        <v>5</v>
+      </c>
+      <c r="I130" s="3">
+        <v>16</v>
+      </c>
+      <c r="J130" s="3">
+        <v>14</v>
+      </c>
+      <c r="K130" s="3">
+        <v>11</v>
+      </c>
+      <c r="L130" s="3">
+        <v>9</v>
+      </c>
+      <c r="M130" s="3">
+        <v>10</v>
+      </c>
+      <c r="N130" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
@@ -5842,16 +5928,36 @@
       <c r="D131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
+      <c r="E131" s="3">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3">
+        <v>11</v>
+      </c>
+      <c r="G131" s="3">
+        <v>11</v>
+      </c>
+      <c r="H131" s="3">
+        <v>8</v>
+      </c>
+      <c r="I131" s="3">
+        <v>7</v>
+      </c>
+      <c r="J131" s="3">
+        <v>11</v>
+      </c>
+      <c r="K131" s="3">
+        <v>11</v>
+      </c>
+      <c r="L131" s="3">
+        <v>9</v>
+      </c>
+      <c r="M131" s="3">
+        <v>10</v>
+      </c>
+      <c r="N131" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10">
@@ -5867,16 +5973,36 @@
       <c r="D132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+      <c r="E132" s="2">
+        <v>7</v>
+      </c>
+      <c r="F132" s="2">
+        <v>11</v>
+      </c>
+      <c r="G132" s="2">
+        <v>12</v>
+      </c>
+      <c r="H132" s="2">
+        <v>10</v>
+      </c>
+      <c r="I132" s="2">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2">
+        <v>12</v>
+      </c>
+      <c r="K132" s="2">
+        <v>11</v>
+      </c>
+      <c r="L132" s="2">
+        <v>7</v>
+      </c>
+      <c r="M132" s="2">
+        <v>7</v>
+      </c>
+      <c r="N132" s="2">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I23">

--- a/RESULTADOS T5.xlsx
+++ b/RESULTADOS T5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98ABAF3-CB64-4286-B219-ABB87BA149D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7F290-6FBB-44E3-A4B2-736D711F50B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{38F0E9F6-B780-4D16-AEF9-B7D74C50147E}"/>
   </bookViews>
@@ -123,10 +123,10 @@
     <t>Attila Bajner</t>
   </si>
   <si>
-    <t>Alejandro Navarro</t>
+    <t>Álvaro Monleón</t>
   </si>
   <si>
-    <t>Álvaro Monleón</t>
+    <t>Alex Navarro</t>
   </si>
 </sst>
 </file>
@@ -358,27 +358,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C91A13-D544-4038-9C47-C08B7B768B68}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="Q123" sqref="Q123"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1475,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
@@ -1741,7 +1721,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -2091,7 +2071,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="12">
         <v>11</v>
@@ -2202,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -2398,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>27</v>
@@ -2675,7 +2655,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -2863,7 +2843,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -3181,7 +3161,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>31</v>
@@ -3625,7 +3605,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>20</v>
@@ -3670,7 +3650,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>29</v>
@@ -3792,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>13</v>
